--- a/設計書/SleepLeader_機能設計書.xlsx
+++ b/設計書/SleepLeader_機能設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SleepLeader\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{928F17A7-C8F7-4990-921A-0B4FCF380D0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA43410E-33BD-4AE1-A4B5-C16524B7D241}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="22596" windowHeight="9804" xr2:uid="{1A4B43E4-094B-4C0A-9C2B-62039C435C55}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="22596" windowHeight="9804" activeTab="1" xr2:uid="{1A4B43E4-094B-4C0A-9C2B-62039C435C55}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="4">
@@ -180,99 +180,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザー認証機能</t>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ログイン</t>
-  </si>
-  <si>
-    <t>画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-  </si>
-  <si>
-    <t>映画予約システム</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画予約システム　機能設計書</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>映画予約システム　機能一覧</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>本機能一覧は、映画予約システムのシステムに含まれる機能の一覧を示す。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>エイガヨヤク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
@@ -401,435 +308,7 @@
     <t>v1.0</t>
   </si>
   <si>
-    <t>ユーザー機能</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報検索・一覧機能</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>会員情報機能</t>
-    <rPh sb="0" eb="4">
-      <t>カイインジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>映画予約機能</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報検索・一覧</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>会員情報登録</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>会員情報変更</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画予約</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画予約取り消し</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>管理者機能</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報機能</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画予約確認機能</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報削除機能</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報登録</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報更新</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報予約確認</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報削除</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FU1-1</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FU1-2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FU2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
     <t>FU3-1</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FU4-1</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FA1-1</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FA1-2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FA2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FA3-1</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FA4</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>ログイン認証を行う</t>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>ログアウトを行う</t>
-    <rPh sb="6" eb="7">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報の一覧や、検索機能</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>会員情報を登録する</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>会員情報を変更する</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画の予約を行う</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画予約の取り消しを行う</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報を登録する</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報の更新を行う</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報の予約状況を確認</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>映画情報の削除を行う</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="15"/>
   </si>
   <si>
@@ -858,18 +337,6 @@
   </si>
   <si>
     <t>FU3-2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FU4-2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FA3-2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FA5</t>
     <phoneticPr fontId="15"/>
   </si>
   <si>
@@ -1088,6 +555,274 @@
   </si>
   <si>
     <t>SleepLeader</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面明るさ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>FU1-2</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>時間帯によって画面の明るさを変える</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>BGM機能</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BGMインストール</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>サーバーからBGMをインストールする</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>BGMアンインストール</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>本機能一覧は、SleepLeaderのアプリに含まれる機能の一覧を示す。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SleepLeader　機能設計書</t>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SleepLeader　機能一覧</t>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FU2-1</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>FU2-2</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>BGM登録機能</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>FU2-3</t>
+  </si>
+  <si>
+    <t>BGMをアンインストールする</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>端末にある音楽を1つだけ登録する</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>アラーム機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>FU3-3</t>
+  </si>
+  <si>
+    <t>フェードイン機能</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ランダム再生か固定再生かで切り替える</t>
+    <rPh sb="4" eb="6">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>アラームのBGMをフェードインで流す</t>
+    <rPh sb="16" eb="17">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>スヌーズ機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>2～3回アラームを流す。5分程度の間隔で再生する</t>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>BGM再生機能</t>
+    <rPh sb="3" eb="5">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アラーム再生機能</t>
+    <rPh sb="4" eb="6">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>イヤホン装着時はイヤホンからしかアラームが再生されない</t>
+    <rPh sb="4" eb="6">
+      <t>ソウチャク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>FU2-4</t>
+  </si>
+  <si>
+    <t>画面機能</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ユーザー機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -1459,7 +1194,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1546,28 +1281,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1613,11 +1330,59 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1636,24 +1401,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1696,60 +1443,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1759,47 +1452,26 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1808,6 +1480,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1819,8 +1494,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1834,8 +1518,47 @@
     <xf numFmtId="31" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -12125,7 +11848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533CBED2-1FC4-48FB-8863-72EC36B7F6C3}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -12178,10 +11901,10 @@
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="77" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R2" s="78"/>
-      <c r="S2" s="49">
+      <c r="S2" s="43">
         <v>43711</v>
       </c>
       <c r="T2" s="28"/>
@@ -12234,7 +11957,7 @@
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="31" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="11"/>
@@ -12262,7 +11985,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="11"/>
@@ -12275,18 +11998,18 @@
     <row r="6" spans="1:24">
       <c r="A6" s="10"/>
       <c r="B6" s="22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
-      <c r="E6" s="97" t="s">
-        <v>32</v>
+      <c r="E6" s="101" t="s">
+        <v>24</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -12304,35 +12027,35 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="10"/>
-      <c r="B7" s="110" t="s">
-        <v>33</v>
+      <c r="B7" s="71" t="s">
+        <v>25</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="79" t="s">
-        <v>115</v>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="89" t="s">
+        <v>66</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="81"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="91"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="77" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="R7" s="78"/>
       <c r="S7" s="77" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="T7" s="78"/>
       <c r="U7" s="77" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="V7" s="78"/>
       <c r="W7" s="37"/>
@@ -12340,29 +12063,29 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="10"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="84"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="94"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="100" t="s">
-        <v>81</v>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="104" t="s">
+        <v>35</v>
       </c>
-      <c r="V8" s="101"/>
+      <c r="V8" s="105"/>
       <c r="W8" s="35"/>
       <c r="X8" s="33"/>
     </row>
@@ -12383,12 +12106,12 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="103"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="107"/>
       <c r="W9" s="35"/>
       <c r="X9" s="33"/>
     </row>
@@ -12409,12 +12132,12 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="105"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="109"/>
       <c r="W10" s="35"/>
       <c r="X10" s="33"/>
     </row>
@@ -12498,81 +12221,81 @@
     </row>
     <row r="14" spans="1:24" ht="41.4">
       <c r="A14" s="10"/>
-      <c r="B14" s="99" t="s">
-        <v>37</v>
+      <c r="B14" s="103" t="s">
+        <v>29</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="30"/>
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="41.4">
       <c r="A15" s="10"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="30"/>
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="41.4">
       <c r="A16" s="10"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
       <c r="W16" s="30"/>
       <c r="X16" s="12"/>
     </row>
@@ -13073,7 +12796,7 @@
     <row r="36" spans="1:24">
       <c r="A36" s="10"/>
       <c r="B36" s="21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -13126,511 +12849,511 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="10"/>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="85" t="s">
-        <v>39</v>
+      <c r="C38" s="83"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="82" t="s">
+        <v>31</v>
       </c>
-      <c r="F38" s="86"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="85" t="s">
-        <v>40</v>
+      <c r="F38" s="83"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="82" t="s">
+        <v>32</v>
       </c>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="85" t="s">
-        <v>36</v>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="83"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="84"/>
+      <c r="T38" s="82" t="s">
+        <v>28</v>
       </c>
-      <c r="U38" s="86"/>
-      <c r="V38" s="87"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="84"/>
       <c r="W38" s="29"/>
       <c r="X38" s="12"/>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="10"/>
-      <c r="B39" s="85" t="s">
-        <v>41</v>
+      <c r="B39" s="82" t="s">
+        <v>33</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="88">
+      <c r="C39" s="83"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="79">
         <v>43578</v>
       </c>
-      <c r="F39" s="89"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="107" t="s">
-        <v>83</v>
+      <c r="F39" s="80"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="86" t="s">
+        <v>37</v>
       </c>
-      <c r="I39" s="108"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="109"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="88"/>
       <c r="T39" s="77" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
-      <c r="U39" s="106"/>
+      <c r="U39" s="85"/>
       <c r="V39" s="78"/>
       <c r="W39" s="29"/>
       <c r="X39" s="12"/>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="10"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="86"/>
-      <c r="O40" s="86"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86"/>
-      <c r="S40" s="87"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="84"/>
       <c r="T40" s="77"/>
-      <c r="U40" s="106"/>
+      <c r="U40" s="85"/>
       <c r="V40" s="78"/>
       <c r="W40" s="29"/>
       <c r="X40" s="12"/>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="10"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="86"/>
-      <c r="O41" s="86"/>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="86"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="86"/>
-      <c r="V41" s="87"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="83"/>
+      <c r="V41" s="84"/>
       <c r="W41" s="29"/>
       <c r="X41" s="12"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="10"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="86"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="86"/>
-      <c r="V42" s="87"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="83"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="83"/>
+      <c r="V42" s="84"/>
       <c r="W42" s="29"/>
       <c r="X42" s="12"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="10"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="85"/>
-      <c r="U43" s="86"/>
-      <c r="V43" s="87"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="83"/>
+      <c r="V43" s="84"/>
       <c r="W43" s="29"/>
       <c r="X43" s="12"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="10"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="86"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="85"/>
-      <c r="U44" s="86"/>
-      <c r="V44" s="87"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="83"/>
+      <c r="Q44" s="83"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="84"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="83"/>
+      <c r="V44" s="84"/>
       <c r="W44" s="29"/>
       <c r="X44" s="12"/>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="10"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="85"/>
-      <c r="U45" s="86"/>
-      <c r="V45" s="87"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="84"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="83"/>
+      <c r="V45" s="84"/>
       <c r="W45" s="29"/>
       <c r="X45" s="12"/>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="10"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="86"/>
-      <c r="O46" s="86"/>
-      <c r="P46" s="86"/>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="86"/>
-      <c r="S46" s="87"/>
-      <c r="T46" s="85"/>
-      <c r="U46" s="86"/>
-      <c r="V46" s="87"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="83"/>
+      <c r="V46" s="84"/>
       <c r="W46" s="29"/>
       <c r="X46" s="12"/>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="10"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="86"/>
-      <c r="Q47" s="86"/>
-      <c r="R47" s="86"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="85"/>
-      <c r="U47" s="86"/>
-      <c r="V47" s="87"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="84"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="83"/>
+      <c r="V47" s="84"/>
       <c r="W47" s="29"/>
       <c r="X47" s="12"/>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" s="10"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="86"/>
-      <c r="N48" s="86"/>
-      <c r="O48" s="86"/>
-      <c r="P48" s="86"/>
-      <c r="Q48" s="86"/>
-      <c r="R48" s="86"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="85"/>
-      <c r="U48" s="86"/>
-      <c r="V48" s="87"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
+      <c r="P48" s="83"/>
+      <c r="Q48" s="83"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="84"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="83"/>
+      <c r="V48" s="84"/>
       <c r="W48" s="29"/>
       <c r="X48" s="12"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="10"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="86"/>
-      <c r="O49" s="86"/>
-      <c r="P49" s="86"/>
-      <c r="Q49" s="86"/>
-      <c r="R49" s="86"/>
-      <c r="S49" s="87"/>
-      <c r="T49" s="85"/>
-      <c r="U49" s="86"/>
-      <c r="V49" s="87"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="83"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="84"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="83"/>
+      <c r="V49" s="84"/>
       <c r="W49" s="29"/>
       <c r="X49" s="12"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="10"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="86"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
-      <c r="Q50" s="86"/>
-      <c r="R50" s="86"/>
-      <c r="S50" s="87"/>
-      <c r="T50" s="85"/>
-      <c r="U50" s="86"/>
-      <c r="V50" s="87"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="83"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="83"/>
+      <c r="V50" s="84"/>
       <c r="W50" s="29"/>
       <c r="X50" s="12"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="10"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="86"/>
-      <c r="N51" s="86"/>
-      <c r="O51" s="86"/>
-      <c r="P51" s="86"/>
-      <c r="Q51" s="86"/>
-      <c r="R51" s="86"/>
-      <c r="S51" s="87"/>
-      <c r="T51" s="85"/>
-      <c r="U51" s="86"/>
-      <c r="V51" s="87"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="84"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="83"/>
+      <c r="V51" s="84"/>
       <c r="W51" s="29"/>
       <c r="X51" s="12"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="10"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="86"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="86"/>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="86"/>
-      <c r="S52" s="87"/>
-      <c r="T52" s="85"/>
-      <c r="U52" s="86"/>
-      <c r="V52" s="87"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="82"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="84"/>
       <c r="W52" s="29"/>
       <c r="X52" s="12"/>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="10"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="86"/>
-      <c r="O53" s="86"/>
-      <c r="P53" s="86"/>
-      <c r="Q53" s="86"/>
-      <c r="R53" s="86"/>
-      <c r="S53" s="87"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="86"/>
-      <c r="V53" s="87"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="82"/>
+      <c r="U53" s="83"/>
+      <c r="V53" s="84"/>
       <c r="W53" s="29"/>
       <c r="X53" s="12"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="10"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="86"/>
-      <c r="O54" s="86"/>
-      <c r="P54" s="86"/>
-      <c r="Q54" s="86"/>
-      <c r="R54" s="86"/>
-      <c r="S54" s="87"/>
-      <c r="T54" s="85"/>
-      <c r="U54" s="86"/>
-      <c r="V54" s="87"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="83"/>
+      <c r="R54" s="83"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="82"/>
+      <c r="U54" s="83"/>
+      <c r="V54" s="84"/>
       <c r="W54" s="29"/>
       <c r="X54" s="12"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="10"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="86"/>
-      <c r="O55" s="86"/>
-      <c r="P55" s="86"/>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="86"/>
-      <c r="S55" s="87"/>
-      <c r="T55" s="85"/>
-      <c r="U55" s="86"/>
-      <c r="V55" s="87"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="82"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="84"/>
       <c r="W55" s="29"/>
       <c r="X55" s="12"/>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="10"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="86"/>
-      <c r="N56" s="86"/>
-      <c r="O56" s="86"/>
-      <c r="P56" s="86"/>
-      <c r="Q56" s="86"/>
-      <c r="R56" s="86"/>
-      <c r="S56" s="87"/>
-      <c r="T56" s="85"/>
-      <c r="U56" s="86"/>
-      <c r="V56" s="87"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="82"/>
+      <c r="U56" s="83"/>
+      <c r="V56" s="84"/>
       <c r="W56" s="29"/>
       <c r="X56" s="12"/>
     </row>
@@ -13740,6 +13463,77 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E7:N8"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:S41"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T10"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="Q8:R10"/>
+    <mergeCell ref="B14:V16"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="H38:S38"/>
+    <mergeCell ref="U8:V10"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="H39:S39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B7:D8"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="E56:G56"/>
@@ -13756,77 +13550,6 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:S55"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:S54"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="H39:S39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E7:N8"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:S41"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T10"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="Q8:R10"/>
-    <mergeCell ref="B14:V16"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="H38:S38"/>
-    <mergeCell ref="U8:V10"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13835,17 +13558,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6748DBE-A634-414F-9EA2-62B8D0387B45}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" customWidth="1"/>
     <col min="4" max="5" width="17.796875" customWidth="1"/>
     <col min="6" max="6" width="39.3984375" customWidth="1"/>
     <col min="7" max="7" width="17.796875" customWidth="1"/>
@@ -13861,102 +13584,100 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="118"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="110" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="120" t="s">
-        <v>24</v>
+      <c r="C2" s="113" t="s">
+        <v>66</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="125"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="48">
-        <v>43578</v>
+      <c r="H3" s="42">
+        <v>43711</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="126"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120" t="s">
-        <v>25</v>
+      <c r="C4" s="113" t="s">
+        <v>77</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
       <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="110" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="120" t="s">
-        <v>26</v>
+      <c r="C5" s="113" t="s">
+        <v>78</v>
       </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="126"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="120" t="s">
-        <v>27</v>
+      <c r="C6" s="113" t="s">
+        <v>76</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="48">
-        <v>43580</v>
-      </c>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1"/>
@@ -13997,314 +13718,193 @@
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="118"/>
+      <c r="H9" s="116"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="127" t="s">
-        <v>42</v>
+      <c r="A10" s="145" t="s">
+        <v>97</v>
       </c>
-      <c r="B10" s="129" t="s">
-        <v>20</v>
+      <c r="B10" s="141" t="s">
+        <v>96</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>21</v>
+      <c r="C10" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
+      <c r="F10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="128"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="39" t="s">
-        <v>23</v>
+      <c r="A11" s="146"/>
+      <c r="B11" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>73</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>61</v>
+      <c r="E11" s="41" t="s">
+        <v>79</v>
       </c>
-      <c r="F11" s="41" t="s">
-        <v>71</v>
+      <c r="F11" s="40" t="s">
+        <v>74</v>
       </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="123"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="128"/>
-      <c r="B12" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>46</v>
+      <c r="A12" s="146"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>62</v>
+      <c r="E12" s="41" t="s">
+        <v>80</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>72</v>
+      <c r="F12" s="40" t="s">
+        <v>83</v>
       </c>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="128"/>
-      <c r="B13" s="129" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>47</v>
+      <c r="A13" s="146"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="39" t="s">
+        <v>81</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>63</v>
+      <c r="E13" s="41" t="s">
+        <v>82</v>
       </c>
-      <c r="F13" s="41" t="s">
-        <v>73</v>
+      <c r="F13" s="40" t="s">
+        <v>84</v>
       </c>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="128"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="39" t="s">
-        <v>48</v>
+      <c r="A14" s="146"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>84</v>
+      <c r="E14" s="41" t="s">
+        <v>95</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>74</v>
+      <c r="F14" s="40" t="s">
+        <v>88</v>
       </c>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="128"/>
-      <c r="B15" s="132" t="s">
-        <v>45</v>
+      <c r="A15" s="146"/>
+      <c r="B15" s="138" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>64</v>
+      <c r="E15" s="41" t="s">
+        <v>34</v>
       </c>
-      <c r="F15" s="41" t="s">
-        <v>75</v>
+      <c r="F15" s="40" t="s">
+        <v>89</v>
       </c>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="128"/>
-      <c r="B16" s="133"/>
+    <row r="16" spans="1:8" ht="36">
+      <c r="A16" s="146"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="39" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>85</v>
+      <c r="E16" s="41" t="s">
+        <v>38</v>
       </c>
-      <c r="F16" s="41" t="s">
-        <v>76</v>
+      <c r="F16" s="40" t="s">
+        <v>91</v>
       </c>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="135" t="s">
-        <v>20</v>
-      </c>
+    <row r="17" spans="1:8" ht="36">
+      <c r="A17" s="147"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="39" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>65</v>
+      <c r="E17" s="41" t="s">
+        <v>86</v>
       </c>
-      <c r="F17" s="41" t="s">
-        <v>70</v>
+      <c r="F17" s="148" t="s">
+        <v>94</v>
       </c>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="134"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="135"/>
-      <c r="C18" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="134"/>
-      <c r="B19" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="134"/>
-      <c r="B20" s="136" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="134"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="134"/>
-      <c r="B22" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="134"/>
-      <c r="B23" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="135"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B20:B21"/>
+  <mergeCells count="20">
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A10:A17"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14326,439 +13926,448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="19.8">
-      <c r="A1" s="50" t="s">
-        <v>89</v>
+      <c r="A1" s="44" t="s">
+        <v>40</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="46"/>
     </row>
     <row r="2" spans="1:63">
-      <c r="A2" s="147" t="s">
-        <v>90</v>
+      <c r="A2" s="119" t="s">
+        <v>41</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="141" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="141" t="s">
-        <v>91</v>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="120" t="s">
+        <v>42</v>
       </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="142"/>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="143"/>
-      <c r="AR2" s="137" t="s">
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="121"/>
+      <c r="AK2" s="121"/>
+      <c r="AL2" s="121"/>
+      <c r="AM2" s="121"/>
+      <c r="AN2" s="121"/>
+      <c r="AO2" s="121"/>
+      <c r="AP2" s="121"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="AS2" s="137"/>
-      <c r="AT2" s="137"/>
-      <c r="AU2" s="144" t="s">
-        <v>92</v>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123"/>
+      <c r="AU2" s="124" t="s">
+        <v>43</v>
       </c>
-      <c r="AV2" s="145"/>
-      <c r="AW2" s="145"/>
-      <c r="AX2" s="145"/>
-      <c r="AY2" s="145"/>
-      <c r="AZ2" s="145"/>
-      <c r="BA2" s="145"/>
-      <c r="BB2" s="145"/>
-      <c r="BC2" s="145"/>
-      <c r="BD2" s="145"/>
-      <c r="BE2" s="145"/>
-      <c r="BF2" s="145"/>
-      <c r="BG2" s="145"/>
-      <c r="BH2" s="145"/>
-      <c r="BI2" s="145"/>
-      <c r="BJ2" s="145"/>
-      <c r="BK2" s="146"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125"/>
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
+      <c r="BG2" s="125"/>
+      <c r="BH2" s="125"/>
+      <c r="BI2" s="125"/>
+      <c r="BJ2" s="125"/>
+      <c r="BK2" s="126"/>
     </row>
     <row r="3" spans="1:63">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="141" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="141" t="s">
-        <v>93</v>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="120" t="s">
+        <v>44</v>
       </c>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="142"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="142"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="142"/>
-      <c r="AP3" s="142"/>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="137" t="s">
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="121"/>
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="121"/>
+      <c r="AO3" s="121"/>
+      <c r="AP3" s="121"/>
+      <c r="AQ3" s="122"/>
+      <c r="AR3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AS3" s="137"/>
-      <c r="AT3" s="137"/>
-      <c r="AU3" s="138">
+      <c r="AS3" s="123"/>
+      <c r="AT3" s="123"/>
+      <c r="AU3" s="127">
         <v>43594</v>
       </c>
-      <c r="AV3" s="139"/>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139"/>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="139"/>
-      <c r="BC3" s="139"/>
-      <c r="BD3" s="139"/>
-      <c r="BE3" s="139"/>
-      <c r="BF3" s="139"/>
-      <c r="BG3" s="139"/>
-      <c r="BH3" s="139"/>
-      <c r="BI3" s="139"/>
-      <c r="BJ3" s="139"/>
-      <c r="BK3" s="140"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+      <c r="BC3" s="128"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="128"/>
+      <c r="BG3" s="128"/>
+      <c r="BH3" s="128"/>
+      <c r="BI3" s="128"/>
+      <c r="BJ3" s="128"/>
+      <c r="BK3" s="129"/>
     </row>
     <row r="4" spans="1:63">
-      <c r="A4" s="147"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="141" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="141" t="s">
-        <v>94</v>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="120" t="s">
+        <v>45</v>
       </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="142"/>
-      <c r="AD4" s="142"/>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="142"/>
-      <c r="AG4" s="142"/>
-      <c r="AH4" s="142"/>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="142"/>
-      <c r="AL4" s="142"/>
-      <c r="AM4" s="142"/>
-      <c r="AN4" s="142"/>
-      <c r="AO4" s="142"/>
-      <c r="AP4" s="142"/>
-      <c r="AQ4" s="143"/>
-      <c r="AR4" s="137" t="s">
-        <v>95</v>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="121"/>
+      <c r="AI4" s="121"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="121"/>
+      <c r="AO4" s="121"/>
+      <c r="AP4" s="121"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="123" t="s">
+        <v>46</v>
       </c>
-      <c r="AS4" s="137"/>
-      <c r="AT4" s="137"/>
-      <c r="AU4" s="144" t="s">
-        <v>96</v>
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="124" t="s">
+        <v>47</v>
       </c>
-      <c r="AV4" s="145"/>
-      <c r="AW4" s="145"/>
-      <c r="AX4" s="145"/>
-      <c r="AY4" s="145"/>
-      <c r="AZ4" s="145"/>
-      <c r="BA4" s="145"/>
-      <c r="BB4" s="145"/>
-      <c r="BC4" s="145"/>
-      <c r="BD4" s="145"/>
-      <c r="BE4" s="145"/>
-      <c r="BF4" s="145"/>
-      <c r="BG4" s="145"/>
-      <c r="BH4" s="145"/>
-      <c r="BI4" s="145"/>
-      <c r="BJ4" s="145"/>
-      <c r="BK4" s="146"/>
+      <c r="AV4" s="125"/>
+      <c r="AW4" s="125"/>
+      <c r="AX4" s="125"/>
+      <c r="AY4" s="125"/>
+      <c r="AZ4" s="125"/>
+      <c r="BA4" s="125"/>
+      <c r="BB4" s="125"/>
+      <c r="BC4" s="125"/>
+      <c r="BD4" s="125"/>
+      <c r="BE4" s="125"/>
+      <c r="BF4" s="125"/>
+      <c r="BG4" s="125"/>
+      <c r="BH4" s="125"/>
+      <c r="BI4" s="125"/>
+      <c r="BJ4" s="125"/>
+      <c r="BK4" s="126"/>
     </row>
     <row r="5" spans="1:63">
-      <c r="A5" s="147" t="s">
-        <v>97</v>
+      <c r="A5" s="119" t="s">
+        <v>48</v>
       </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="141" t="s">
-        <v>98</v>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120" t="s">
+        <v>49</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="141" t="s">
-        <v>99</v>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="120" t="s">
+        <v>50</v>
       </c>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="142"/>
-      <c r="AG5" s="142"/>
-      <c r="AH5" s="142"/>
-      <c r="AI5" s="142"/>
-      <c r="AJ5" s="142"/>
-      <c r="AK5" s="142"/>
-      <c r="AL5" s="142"/>
-      <c r="AM5" s="142"/>
-      <c r="AN5" s="142"/>
-      <c r="AO5" s="142"/>
-      <c r="AP5" s="142"/>
-      <c r="AQ5" s="143"/>
-      <c r="AR5" s="137" t="s">
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="121"/>
+      <c r="AH5" s="121"/>
+      <c r="AI5" s="121"/>
+      <c r="AJ5" s="121"/>
+      <c r="AK5" s="121"/>
+      <c r="AL5" s="121"/>
+      <c r="AM5" s="121"/>
+      <c r="AN5" s="121"/>
+      <c r="AO5" s="121"/>
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="122"/>
+      <c r="AR5" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="144"/>
-      <c r="AV5" s="145"/>
-      <c r="AW5" s="145"/>
-      <c r="AX5" s="145"/>
-      <c r="AY5" s="145"/>
-      <c r="AZ5" s="145"/>
-      <c r="BA5" s="145"/>
-      <c r="BB5" s="145"/>
-      <c r="BC5" s="145"/>
-      <c r="BD5" s="145"/>
-      <c r="BE5" s="145"/>
-      <c r="BF5" s="145"/>
-      <c r="BG5" s="145"/>
-      <c r="BH5" s="145"/>
-      <c r="BI5" s="145"/>
-      <c r="BJ5" s="145"/>
-      <c r="BK5" s="146"/>
+      <c r="AS5" s="123"/>
+      <c r="AT5" s="123"/>
+      <c r="AU5" s="124"/>
+      <c r="AV5" s="125"/>
+      <c r="AW5" s="125"/>
+      <c r="AX5" s="125"/>
+      <c r="AY5" s="125"/>
+      <c r="AZ5" s="125"/>
+      <c r="BA5" s="125"/>
+      <c r="BB5" s="125"/>
+      <c r="BC5" s="125"/>
+      <c r="BD5" s="125"/>
+      <c r="BE5" s="125"/>
+      <c r="BF5" s="125"/>
+      <c r="BG5" s="125"/>
+      <c r="BH5" s="125"/>
+      <c r="BI5" s="125"/>
+      <c r="BJ5" s="125"/>
+      <c r="BK5" s="126"/>
     </row>
     <row r="6" spans="1:63">
-      <c r="A6" s="147"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="141" t="s">
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="141" t="s">
-        <v>100</v>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="120" t="s">
+        <v>51</v>
       </c>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="142"/>
-      <c r="AB6" s="142"/>
-      <c r="AC6" s="142"/>
-      <c r="AD6" s="142"/>
-      <c r="AE6" s="142"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="142"/>
-      <c r="AH6" s="142"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="142"/>
-      <c r="AL6" s="142"/>
-      <c r="AM6" s="142"/>
-      <c r="AN6" s="142"/>
-      <c r="AO6" s="142"/>
-      <c r="AP6" s="142"/>
-      <c r="AQ6" s="143"/>
-      <c r="AR6" s="137" t="s">
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="121"/>
+      <c r="AI6" s="121"/>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="121"/>
+      <c r="AL6" s="121"/>
+      <c r="AM6" s="121"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="121"/>
+      <c r="AQ6" s="122"/>
+      <c r="AR6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="137"/>
-      <c r="AT6" s="137"/>
-      <c r="AU6" s="138"/>
-      <c r="AV6" s="139"/>
-      <c r="AW6" s="139"/>
-      <c r="AX6" s="139"/>
-      <c r="AY6" s="139"/>
-      <c r="AZ6" s="139"/>
-      <c r="BA6" s="139"/>
-      <c r="BB6" s="139"/>
-      <c r="BC6" s="139"/>
-      <c r="BD6" s="139"/>
-      <c r="BE6" s="139"/>
-      <c r="BF6" s="139"/>
-      <c r="BG6" s="139"/>
-      <c r="BH6" s="139"/>
-      <c r="BI6" s="139"/>
-      <c r="BJ6" s="139"/>
-      <c r="BK6" s="140"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123"/>
+      <c r="AU6" s="127"/>
+      <c r="AV6" s="128"/>
+      <c r="AW6" s="128"/>
+      <c r="AX6" s="128"/>
+      <c r="AY6" s="128"/>
+      <c r="AZ6" s="128"/>
+      <c r="BA6" s="128"/>
+      <c r="BB6" s="128"/>
+      <c r="BC6" s="128"/>
+      <c r="BD6" s="128"/>
+      <c r="BE6" s="128"/>
+      <c r="BF6" s="128"/>
+      <c r="BG6" s="128"/>
+      <c r="BH6" s="128"/>
+      <c r="BI6" s="128"/>
+      <c r="BJ6" s="128"/>
+      <c r="BK6" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:BK5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:BK6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:AQ2"/>
@@ -14769,15 +14378,6 @@
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:BK3"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:BK5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:BK6"/>
     <mergeCell ref="H4:AQ4"/>
     <mergeCell ref="AR4:AT4"/>
     <mergeCell ref="AU4:BK4"/>
@@ -14799,651 +14399,651 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="3.796875" style="55" customWidth="1"/>
-    <col min="5" max="6" width="3.796875" style="68" customWidth="1"/>
-    <col min="7" max="30" width="3.796875" style="55" customWidth="1"/>
-    <col min="31" max="33" width="3.796875" style="69" customWidth="1"/>
-    <col min="34" max="37" width="3.69921875" style="55" customWidth="1"/>
-    <col min="38" max="256" width="11.8984375" style="55"/>
-    <col min="257" max="289" width="3.796875" style="55" customWidth="1"/>
-    <col min="290" max="293" width="3.69921875" style="55" customWidth="1"/>
-    <col min="294" max="512" width="11.8984375" style="55"/>
-    <col min="513" max="545" width="3.796875" style="55" customWidth="1"/>
-    <col min="546" max="549" width="3.69921875" style="55" customWidth="1"/>
-    <col min="550" max="768" width="11.8984375" style="55"/>
-    <col min="769" max="801" width="3.796875" style="55" customWidth="1"/>
-    <col min="802" max="805" width="3.69921875" style="55" customWidth="1"/>
-    <col min="806" max="1024" width="11.8984375" style="55"/>
-    <col min="1025" max="1057" width="3.796875" style="55" customWidth="1"/>
-    <col min="1058" max="1061" width="3.69921875" style="55" customWidth="1"/>
-    <col min="1062" max="1280" width="11.8984375" style="55"/>
-    <col min="1281" max="1313" width="3.796875" style="55" customWidth="1"/>
-    <col min="1314" max="1317" width="3.69921875" style="55" customWidth="1"/>
-    <col min="1318" max="1536" width="11.8984375" style="55"/>
-    <col min="1537" max="1569" width="3.796875" style="55" customWidth="1"/>
-    <col min="1570" max="1573" width="3.69921875" style="55" customWidth="1"/>
-    <col min="1574" max="1792" width="11.8984375" style="55"/>
-    <col min="1793" max="1825" width="3.796875" style="55" customWidth="1"/>
-    <col min="1826" max="1829" width="3.69921875" style="55" customWidth="1"/>
-    <col min="1830" max="2048" width="11.8984375" style="55"/>
-    <col min="2049" max="2081" width="3.796875" style="55" customWidth="1"/>
-    <col min="2082" max="2085" width="3.69921875" style="55" customWidth="1"/>
-    <col min="2086" max="2304" width="11.8984375" style="55"/>
-    <col min="2305" max="2337" width="3.796875" style="55" customWidth="1"/>
-    <col min="2338" max="2341" width="3.69921875" style="55" customWidth="1"/>
-    <col min="2342" max="2560" width="11.8984375" style="55"/>
-    <col min="2561" max="2593" width="3.796875" style="55" customWidth="1"/>
-    <col min="2594" max="2597" width="3.69921875" style="55" customWidth="1"/>
-    <col min="2598" max="2816" width="11.8984375" style="55"/>
-    <col min="2817" max="2849" width="3.796875" style="55" customWidth="1"/>
-    <col min="2850" max="2853" width="3.69921875" style="55" customWidth="1"/>
-    <col min="2854" max="3072" width="11.8984375" style="55"/>
-    <col min="3073" max="3105" width="3.796875" style="55" customWidth="1"/>
-    <col min="3106" max="3109" width="3.69921875" style="55" customWidth="1"/>
-    <col min="3110" max="3328" width="11.8984375" style="55"/>
-    <col min="3329" max="3361" width="3.796875" style="55" customWidth="1"/>
-    <col min="3362" max="3365" width="3.69921875" style="55" customWidth="1"/>
-    <col min="3366" max="3584" width="11.8984375" style="55"/>
-    <col min="3585" max="3617" width="3.796875" style="55" customWidth="1"/>
-    <col min="3618" max="3621" width="3.69921875" style="55" customWidth="1"/>
-    <col min="3622" max="3840" width="11.8984375" style="55"/>
-    <col min="3841" max="3873" width="3.796875" style="55" customWidth="1"/>
-    <col min="3874" max="3877" width="3.69921875" style="55" customWidth="1"/>
-    <col min="3878" max="4096" width="11.8984375" style="55"/>
-    <col min="4097" max="4129" width="3.796875" style="55" customWidth="1"/>
-    <col min="4130" max="4133" width="3.69921875" style="55" customWidth="1"/>
-    <col min="4134" max="4352" width="11.8984375" style="55"/>
-    <col min="4353" max="4385" width="3.796875" style="55" customWidth="1"/>
-    <col min="4386" max="4389" width="3.69921875" style="55" customWidth="1"/>
-    <col min="4390" max="4608" width="11.8984375" style="55"/>
-    <col min="4609" max="4641" width="3.796875" style="55" customWidth="1"/>
-    <col min="4642" max="4645" width="3.69921875" style="55" customWidth="1"/>
-    <col min="4646" max="4864" width="11.8984375" style="55"/>
-    <col min="4865" max="4897" width="3.796875" style="55" customWidth="1"/>
-    <col min="4898" max="4901" width="3.69921875" style="55" customWidth="1"/>
-    <col min="4902" max="5120" width="11.8984375" style="55"/>
-    <col min="5121" max="5153" width="3.796875" style="55" customWidth="1"/>
-    <col min="5154" max="5157" width="3.69921875" style="55" customWidth="1"/>
-    <col min="5158" max="5376" width="11.8984375" style="55"/>
-    <col min="5377" max="5409" width="3.796875" style="55" customWidth="1"/>
-    <col min="5410" max="5413" width="3.69921875" style="55" customWidth="1"/>
-    <col min="5414" max="5632" width="11.8984375" style="55"/>
-    <col min="5633" max="5665" width="3.796875" style="55" customWidth="1"/>
-    <col min="5666" max="5669" width="3.69921875" style="55" customWidth="1"/>
-    <col min="5670" max="5888" width="11.8984375" style="55"/>
-    <col min="5889" max="5921" width="3.796875" style="55" customWidth="1"/>
-    <col min="5922" max="5925" width="3.69921875" style="55" customWidth="1"/>
-    <col min="5926" max="6144" width="11.8984375" style="55"/>
-    <col min="6145" max="6177" width="3.796875" style="55" customWidth="1"/>
-    <col min="6178" max="6181" width="3.69921875" style="55" customWidth="1"/>
-    <col min="6182" max="6400" width="11.8984375" style="55"/>
-    <col min="6401" max="6433" width="3.796875" style="55" customWidth="1"/>
-    <col min="6434" max="6437" width="3.69921875" style="55" customWidth="1"/>
-    <col min="6438" max="6656" width="11.8984375" style="55"/>
-    <col min="6657" max="6689" width="3.796875" style="55" customWidth="1"/>
-    <col min="6690" max="6693" width="3.69921875" style="55" customWidth="1"/>
-    <col min="6694" max="6912" width="11.8984375" style="55"/>
-    <col min="6913" max="6945" width="3.796875" style="55" customWidth="1"/>
-    <col min="6946" max="6949" width="3.69921875" style="55" customWidth="1"/>
-    <col min="6950" max="7168" width="11.8984375" style="55"/>
-    <col min="7169" max="7201" width="3.796875" style="55" customWidth="1"/>
-    <col min="7202" max="7205" width="3.69921875" style="55" customWidth="1"/>
-    <col min="7206" max="7424" width="11.8984375" style="55"/>
-    <col min="7425" max="7457" width="3.796875" style="55" customWidth="1"/>
-    <col min="7458" max="7461" width="3.69921875" style="55" customWidth="1"/>
-    <col min="7462" max="7680" width="11.8984375" style="55"/>
-    <col min="7681" max="7713" width="3.796875" style="55" customWidth="1"/>
-    <col min="7714" max="7717" width="3.69921875" style="55" customWidth="1"/>
-    <col min="7718" max="7936" width="11.8984375" style="55"/>
-    <col min="7937" max="7969" width="3.796875" style="55" customWidth="1"/>
-    <col min="7970" max="7973" width="3.69921875" style="55" customWidth="1"/>
-    <col min="7974" max="8192" width="11.8984375" style="55"/>
-    <col min="8193" max="8225" width="3.796875" style="55" customWidth="1"/>
-    <col min="8226" max="8229" width="3.69921875" style="55" customWidth="1"/>
-    <col min="8230" max="8448" width="11.8984375" style="55"/>
-    <col min="8449" max="8481" width="3.796875" style="55" customWidth="1"/>
-    <col min="8482" max="8485" width="3.69921875" style="55" customWidth="1"/>
-    <col min="8486" max="8704" width="11.8984375" style="55"/>
-    <col min="8705" max="8737" width="3.796875" style="55" customWidth="1"/>
-    <col min="8738" max="8741" width="3.69921875" style="55" customWidth="1"/>
-    <col min="8742" max="8960" width="11.8984375" style="55"/>
-    <col min="8961" max="8993" width="3.796875" style="55" customWidth="1"/>
-    <col min="8994" max="8997" width="3.69921875" style="55" customWidth="1"/>
-    <col min="8998" max="9216" width="11.8984375" style="55"/>
-    <col min="9217" max="9249" width="3.796875" style="55" customWidth="1"/>
-    <col min="9250" max="9253" width="3.69921875" style="55" customWidth="1"/>
-    <col min="9254" max="9472" width="11.8984375" style="55"/>
-    <col min="9473" max="9505" width="3.796875" style="55" customWidth="1"/>
-    <col min="9506" max="9509" width="3.69921875" style="55" customWidth="1"/>
-    <col min="9510" max="9728" width="11.8984375" style="55"/>
-    <col min="9729" max="9761" width="3.796875" style="55" customWidth="1"/>
-    <col min="9762" max="9765" width="3.69921875" style="55" customWidth="1"/>
-    <col min="9766" max="9984" width="11.8984375" style="55"/>
-    <col min="9985" max="10017" width="3.796875" style="55" customWidth="1"/>
-    <col min="10018" max="10021" width="3.69921875" style="55" customWidth="1"/>
-    <col min="10022" max="10240" width="11.8984375" style="55"/>
-    <col min="10241" max="10273" width="3.796875" style="55" customWidth="1"/>
-    <col min="10274" max="10277" width="3.69921875" style="55" customWidth="1"/>
-    <col min="10278" max="10496" width="11.8984375" style="55"/>
-    <col min="10497" max="10529" width="3.796875" style="55" customWidth="1"/>
-    <col min="10530" max="10533" width="3.69921875" style="55" customWidth="1"/>
-    <col min="10534" max="10752" width="11.8984375" style="55"/>
-    <col min="10753" max="10785" width="3.796875" style="55" customWidth="1"/>
-    <col min="10786" max="10789" width="3.69921875" style="55" customWidth="1"/>
-    <col min="10790" max="11008" width="11.8984375" style="55"/>
-    <col min="11009" max="11041" width="3.796875" style="55" customWidth="1"/>
-    <col min="11042" max="11045" width="3.69921875" style="55" customWidth="1"/>
-    <col min="11046" max="11264" width="11.8984375" style="55"/>
-    <col min="11265" max="11297" width="3.796875" style="55" customWidth="1"/>
-    <col min="11298" max="11301" width="3.69921875" style="55" customWidth="1"/>
-    <col min="11302" max="11520" width="11.8984375" style="55"/>
-    <col min="11521" max="11553" width="3.796875" style="55" customWidth="1"/>
-    <col min="11554" max="11557" width="3.69921875" style="55" customWidth="1"/>
-    <col min="11558" max="11776" width="11.8984375" style="55"/>
-    <col min="11777" max="11809" width="3.796875" style="55" customWidth="1"/>
-    <col min="11810" max="11813" width="3.69921875" style="55" customWidth="1"/>
-    <col min="11814" max="12032" width="11.8984375" style="55"/>
-    <col min="12033" max="12065" width="3.796875" style="55" customWidth="1"/>
-    <col min="12066" max="12069" width="3.69921875" style="55" customWidth="1"/>
-    <col min="12070" max="12288" width="11.8984375" style="55"/>
-    <col min="12289" max="12321" width="3.796875" style="55" customWidth="1"/>
-    <col min="12322" max="12325" width="3.69921875" style="55" customWidth="1"/>
-    <col min="12326" max="12544" width="11.8984375" style="55"/>
-    <col min="12545" max="12577" width="3.796875" style="55" customWidth="1"/>
-    <col min="12578" max="12581" width="3.69921875" style="55" customWidth="1"/>
-    <col min="12582" max="12800" width="11.8984375" style="55"/>
-    <col min="12801" max="12833" width="3.796875" style="55" customWidth="1"/>
-    <col min="12834" max="12837" width="3.69921875" style="55" customWidth="1"/>
-    <col min="12838" max="13056" width="11.8984375" style="55"/>
-    <col min="13057" max="13089" width="3.796875" style="55" customWidth="1"/>
-    <col min="13090" max="13093" width="3.69921875" style="55" customWidth="1"/>
-    <col min="13094" max="13312" width="11.8984375" style="55"/>
-    <col min="13313" max="13345" width="3.796875" style="55" customWidth="1"/>
-    <col min="13346" max="13349" width="3.69921875" style="55" customWidth="1"/>
-    <col min="13350" max="13568" width="11.8984375" style="55"/>
-    <col min="13569" max="13601" width="3.796875" style="55" customWidth="1"/>
-    <col min="13602" max="13605" width="3.69921875" style="55" customWidth="1"/>
-    <col min="13606" max="13824" width="11.8984375" style="55"/>
-    <col min="13825" max="13857" width="3.796875" style="55" customWidth="1"/>
-    <col min="13858" max="13861" width="3.69921875" style="55" customWidth="1"/>
-    <col min="13862" max="14080" width="11.8984375" style="55"/>
-    <col min="14081" max="14113" width="3.796875" style="55" customWidth="1"/>
-    <col min="14114" max="14117" width="3.69921875" style="55" customWidth="1"/>
-    <col min="14118" max="14336" width="11.8984375" style="55"/>
-    <col min="14337" max="14369" width="3.796875" style="55" customWidth="1"/>
-    <col min="14370" max="14373" width="3.69921875" style="55" customWidth="1"/>
-    <col min="14374" max="14592" width="11.8984375" style="55"/>
-    <col min="14593" max="14625" width="3.796875" style="55" customWidth="1"/>
-    <col min="14626" max="14629" width="3.69921875" style="55" customWidth="1"/>
-    <col min="14630" max="14848" width="11.8984375" style="55"/>
-    <col min="14849" max="14881" width="3.796875" style="55" customWidth="1"/>
-    <col min="14882" max="14885" width="3.69921875" style="55" customWidth="1"/>
-    <col min="14886" max="15104" width="11.8984375" style="55"/>
-    <col min="15105" max="15137" width="3.796875" style="55" customWidth="1"/>
-    <col min="15138" max="15141" width="3.69921875" style="55" customWidth="1"/>
-    <col min="15142" max="15360" width="11.8984375" style="55"/>
-    <col min="15361" max="15393" width="3.796875" style="55" customWidth="1"/>
-    <col min="15394" max="15397" width="3.69921875" style="55" customWidth="1"/>
-    <col min="15398" max="15616" width="11.8984375" style="55"/>
-    <col min="15617" max="15649" width="3.796875" style="55" customWidth="1"/>
-    <col min="15650" max="15653" width="3.69921875" style="55" customWidth="1"/>
-    <col min="15654" max="15872" width="11.8984375" style="55"/>
-    <col min="15873" max="15905" width="3.796875" style="55" customWidth="1"/>
-    <col min="15906" max="15909" width="3.69921875" style="55" customWidth="1"/>
-    <col min="15910" max="16128" width="11.8984375" style="55"/>
-    <col min="16129" max="16161" width="3.796875" style="55" customWidth="1"/>
-    <col min="16162" max="16165" width="3.69921875" style="55" customWidth="1"/>
-    <col min="16166" max="16384" width="11.8984375" style="55"/>
+    <col min="1" max="4" width="3.796875" style="49" customWidth="1"/>
+    <col min="5" max="6" width="3.796875" style="62" customWidth="1"/>
+    <col min="7" max="30" width="3.796875" style="49" customWidth="1"/>
+    <col min="31" max="33" width="3.796875" style="63" customWidth="1"/>
+    <col min="34" max="37" width="3.69921875" style="49" customWidth="1"/>
+    <col min="38" max="256" width="11.8984375" style="49"/>
+    <col min="257" max="289" width="3.796875" style="49" customWidth="1"/>
+    <col min="290" max="293" width="3.69921875" style="49" customWidth="1"/>
+    <col min="294" max="512" width="11.8984375" style="49"/>
+    <col min="513" max="545" width="3.796875" style="49" customWidth="1"/>
+    <col min="546" max="549" width="3.69921875" style="49" customWidth="1"/>
+    <col min="550" max="768" width="11.8984375" style="49"/>
+    <col min="769" max="801" width="3.796875" style="49" customWidth="1"/>
+    <col min="802" max="805" width="3.69921875" style="49" customWidth="1"/>
+    <col min="806" max="1024" width="11.8984375" style="49"/>
+    <col min="1025" max="1057" width="3.796875" style="49" customWidth="1"/>
+    <col min="1058" max="1061" width="3.69921875" style="49" customWidth="1"/>
+    <col min="1062" max="1280" width="11.8984375" style="49"/>
+    <col min="1281" max="1313" width="3.796875" style="49" customWidth="1"/>
+    <col min="1314" max="1317" width="3.69921875" style="49" customWidth="1"/>
+    <col min="1318" max="1536" width="11.8984375" style="49"/>
+    <col min="1537" max="1569" width="3.796875" style="49" customWidth="1"/>
+    <col min="1570" max="1573" width="3.69921875" style="49" customWidth="1"/>
+    <col min="1574" max="1792" width="11.8984375" style="49"/>
+    <col min="1793" max="1825" width="3.796875" style="49" customWidth="1"/>
+    <col min="1826" max="1829" width="3.69921875" style="49" customWidth="1"/>
+    <col min="1830" max="2048" width="11.8984375" style="49"/>
+    <col min="2049" max="2081" width="3.796875" style="49" customWidth="1"/>
+    <col min="2082" max="2085" width="3.69921875" style="49" customWidth="1"/>
+    <col min="2086" max="2304" width="11.8984375" style="49"/>
+    <col min="2305" max="2337" width="3.796875" style="49" customWidth="1"/>
+    <col min="2338" max="2341" width="3.69921875" style="49" customWidth="1"/>
+    <col min="2342" max="2560" width="11.8984375" style="49"/>
+    <col min="2561" max="2593" width="3.796875" style="49" customWidth="1"/>
+    <col min="2594" max="2597" width="3.69921875" style="49" customWidth="1"/>
+    <col min="2598" max="2816" width="11.8984375" style="49"/>
+    <col min="2817" max="2849" width="3.796875" style="49" customWidth="1"/>
+    <col min="2850" max="2853" width="3.69921875" style="49" customWidth="1"/>
+    <col min="2854" max="3072" width="11.8984375" style="49"/>
+    <col min="3073" max="3105" width="3.796875" style="49" customWidth="1"/>
+    <col min="3106" max="3109" width="3.69921875" style="49" customWidth="1"/>
+    <col min="3110" max="3328" width="11.8984375" style="49"/>
+    <col min="3329" max="3361" width="3.796875" style="49" customWidth="1"/>
+    <col min="3362" max="3365" width="3.69921875" style="49" customWidth="1"/>
+    <col min="3366" max="3584" width="11.8984375" style="49"/>
+    <col min="3585" max="3617" width="3.796875" style="49" customWidth="1"/>
+    <col min="3618" max="3621" width="3.69921875" style="49" customWidth="1"/>
+    <col min="3622" max="3840" width="11.8984375" style="49"/>
+    <col min="3841" max="3873" width="3.796875" style="49" customWidth="1"/>
+    <col min="3874" max="3877" width="3.69921875" style="49" customWidth="1"/>
+    <col min="3878" max="4096" width="11.8984375" style="49"/>
+    <col min="4097" max="4129" width="3.796875" style="49" customWidth="1"/>
+    <col min="4130" max="4133" width="3.69921875" style="49" customWidth="1"/>
+    <col min="4134" max="4352" width="11.8984375" style="49"/>
+    <col min="4353" max="4385" width="3.796875" style="49" customWidth="1"/>
+    <col min="4386" max="4389" width="3.69921875" style="49" customWidth="1"/>
+    <col min="4390" max="4608" width="11.8984375" style="49"/>
+    <col min="4609" max="4641" width="3.796875" style="49" customWidth="1"/>
+    <col min="4642" max="4645" width="3.69921875" style="49" customWidth="1"/>
+    <col min="4646" max="4864" width="11.8984375" style="49"/>
+    <col min="4865" max="4897" width="3.796875" style="49" customWidth="1"/>
+    <col min="4898" max="4901" width="3.69921875" style="49" customWidth="1"/>
+    <col min="4902" max="5120" width="11.8984375" style="49"/>
+    <col min="5121" max="5153" width="3.796875" style="49" customWidth="1"/>
+    <col min="5154" max="5157" width="3.69921875" style="49" customWidth="1"/>
+    <col min="5158" max="5376" width="11.8984375" style="49"/>
+    <col min="5377" max="5409" width="3.796875" style="49" customWidth="1"/>
+    <col min="5410" max="5413" width="3.69921875" style="49" customWidth="1"/>
+    <col min="5414" max="5632" width="11.8984375" style="49"/>
+    <col min="5633" max="5665" width="3.796875" style="49" customWidth="1"/>
+    <col min="5666" max="5669" width="3.69921875" style="49" customWidth="1"/>
+    <col min="5670" max="5888" width="11.8984375" style="49"/>
+    <col min="5889" max="5921" width="3.796875" style="49" customWidth="1"/>
+    <col min="5922" max="5925" width="3.69921875" style="49" customWidth="1"/>
+    <col min="5926" max="6144" width="11.8984375" style="49"/>
+    <col min="6145" max="6177" width="3.796875" style="49" customWidth="1"/>
+    <col min="6178" max="6181" width="3.69921875" style="49" customWidth="1"/>
+    <col min="6182" max="6400" width="11.8984375" style="49"/>
+    <col min="6401" max="6433" width="3.796875" style="49" customWidth="1"/>
+    <col min="6434" max="6437" width="3.69921875" style="49" customWidth="1"/>
+    <col min="6438" max="6656" width="11.8984375" style="49"/>
+    <col min="6657" max="6689" width="3.796875" style="49" customWidth="1"/>
+    <col min="6690" max="6693" width="3.69921875" style="49" customWidth="1"/>
+    <col min="6694" max="6912" width="11.8984375" style="49"/>
+    <col min="6913" max="6945" width="3.796875" style="49" customWidth="1"/>
+    <col min="6946" max="6949" width="3.69921875" style="49" customWidth="1"/>
+    <col min="6950" max="7168" width="11.8984375" style="49"/>
+    <col min="7169" max="7201" width="3.796875" style="49" customWidth="1"/>
+    <col min="7202" max="7205" width="3.69921875" style="49" customWidth="1"/>
+    <col min="7206" max="7424" width="11.8984375" style="49"/>
+    <col min="7425" max="7457" width="3.796875" style="49" customWidth="1"/>
+    <col min="7458" max="7461" width="3.69921875" style="49" customWidth="1"/>
+    <col min="7462" max="7680" width="11.8984375" style="49"/>
+    <col min="7681" max="7713" width="3.796875" style="49" customWidth="1"/>
+    <col min="7714" max="7717" width="3.69921875" style="49" customWidth="1"/>
+    <col min="7718" max="7936" width="11.8984375" style="49"/>
+    <col min="7937" max="7969" width="3.796875" style="49" customWidth="1"/>
+    <col min="7970" max="7973" width="3.69921875" style="49" customWidth="1"/>
+    <col min="7974" max="8192" width="11.8984375" style="49"/>
+    <col min="8193" max="8225" width="3.796875" style="49" customWidth="1"/>
+    <col min="8226" max="8229" width="3.69921875" style="49" customWidth="1"/>
+    <col min="8230" max="8448" width="11.8984375" style="49"/>
+    <col min="8449" max="8481" width="3.796875" style="49" customWidth="1"/>
+    <col min="8482" max="8485" width="3.69921875" style="49" customWidth="1"/>
+    <col min="8486" max="8704" width="11.8984375" style="49"/>
+    <col min="8705" max="8737" width="3.796875" style="49" customWidth="1"/>
+    <col min="8738" max="8741" width="3.69921875" style="49" customWidth="1"/>
+    <col min="8742" max="8960" width="11.8984375" style="49"/>
+    <col min="8961" max="8993" width="3.796875" style="49" customWidth="1"/>
+    <col min="8994" max="8997" width="3.69921875" style="49" customWidth="1"/>
+    <col min="8998" max="9216" width="11.8984375" style="49"/>
+    <col min="9217" max="9249" width="3.796875" style="49" customWidth="1"/>
+    <col min="9250" max="9253" width="3.69921875" style="49" customWidth="1"/>
+    <col min="9254" max="9472" width="11.8984375" style="49"/>
+    <col min="9473" max="9505" width="3.796875" style="49" customWidth="1"/>
+    <col min="9506" max="9509" width="3.69921875" style="49" customWidth="1"/>
+    <col min="9510" max="9728" width="11.8984375" style="49"/>
+    <col min="9729" max="9761" width="3.796875" style="49" customWidth="1"/>
+    <col min="9762" max="9765" width="3.69921875" style="49" customWidth="1"/>
+    <col min="9766" max="9984" width="11.8984375" style="49"/>
+    <col min="9985" max="10017" width="3.796875" style="49" customWidth="1"/>
+    <col min="10018" max="10021" width="3.69921875" style="49" customWidth="1"/>
+    <col min="10022" max="10240" width="11.8984375" style="49"/>
+    <col min="10241" max="10273" width="3.796875" style="49" customWidth="1"/>
+    <col min="10274" max="10277" width="3.69921875" style="49" customWidth="1"/>
+    <col min="10278" max="10496" width="11.8984375" style="49"/>
+    <col min="10497" max="10529" width="3.796875" style="49" customWidth="1"/>
+    <col min="10530" max="10533" width="3.69921875" style="49" customWidth="1"/>
+    <col min="10534" max="10752" width="11.8984375" style="49"/>
+    <col min="10753" max="10785" width="3.796875" style="49" customWidth="1"/>
+    <col min="10786" max="10789" width="3.69921875" style="49" customWidth="1"/>
+    <col min="10790" max="11008" width="11.8984375" style="49"/>
+    <col min="11009" max="11041" width="3.796875" style="49" customWidth="1"/>
+    <col min="11042" max="11045" width="3.69921875" style="49" customWidth="1"/>
+    <col min="11046" max="11264" width="11.8984375" style="49"/>
+    <col min="11265" max="11297" width="3.796875" style="49" customWidth="1"/>
+    <col min="11298" max="11301" width="3.69921875" style="49" customWidth="1"/>
+    <col min="11302" max="11520" width="11.8984375" style="49"/>
+    <col min="11521" max="11553" width="3.796875" style="49" customWidth="1"/>
+    <col min="11554" max="11557" width="3.69921875" style="49" customWidth="1"/>
+    <col min="11558" max="11776" width="11.8984375" style="49"/>
+    <col min="11777" max="11809" width="3.796875" style="49" customWidth="1"/>
+    <col min="11810" max="11813" width="3.69921875" style="49" customWidth="1"/>
+    <col min="11814" max="12032" width="11.8984375" style="49"/>
+    <col min="12033" max="12065" width="3.796875" style="49" customWidth="1"/>
+    <col min="12066" max="12069" width="3.69921875" style="49" customWidth="1"/>
+    <col min="12070" max="12288" width="11.8984375" style="49"/>
+    <col min="12289" max="12321" width="3.796875" style="49" customWidth="1"/>
+    <col min="12322" max="12325" width="3.69921875" style="49" customWidth="1"/>
+    <col min="12326" max="12544" width="11.8984375" style="49"/>
+    <col min="12545" max="12577" width="3.796875" style="49" customWidth="1"/>
+    <col min="12578" max="12581" width="3.69921875" style="49" customWidth="1"/>
+    <col min="12582" max="12800" width="11.8984375" style="49"/>
+    <col min="12801" max="12833" width="3.796875" style="49" customWidth="1"/>
+    <col min="12834" max="12837" width="3.69921875" style="49" customWidth="1"/>
+    <col min="12838" max="13056" width="11.8984375" style="49"/>
+    <col min="13057" max="13089" width="3.796875" style="49" customWidth="1"/>
+    <col min="13090" max="13093" width="3.69921875" style="49" customWidth="1"/>
+    <col min="13094" max="13312" width="11.8984375" style="49"/>
+    <col min="13313" max="13345" width="3.796875" style="49" customWidth="1"/>
+    <col min="13346" max="13349" width="3.69921875" style="49" customWidth="1"/>
+    <col min="13350" max="13568" width="11.8984375" style="49"/>
+    <col min="13569" max="13601" width="3.796875" style="49" customWidth="1"/>
+    <col min="13602" max="13605" width="3.69921875" style="49" customWidth="1"/>
+    <col min="13606" max="13824" width="11.8984375" style="49"/>
+    <col min="13825" max="13857" width="3.796875" style="49" customWidth="1"/>
+    <col min="13858" max="13861" width="3.69921875" style="49" customWidth="1"/>
+    <col min="13862" max="14080" width="11.8984375" style="49"/>
+    <col min="14081" max="14113" width="3.796875" style="49" customWidth="1"/>
+    <col min="14114" max="14117" width="3.69921875" style="49" customWidth="1"/>
+    <col min="14118" max="14336" width="11.8984375" style="49"/>
+    <col min="14337" max="14369" width="3.796875" style="49" customWidth="1"/>
+    <col min="14370" max="14373" width="3.69921875" style="49" customWidth="1"/>
+    <col min="14374" max="14592" width="11.8984375" style="49"/>
+    <col min="14593" max="14625" width="3.796875" style="49" customWidth="1"/>
+    <col min="14626" max="14629" width="3.69921875" style="49" customWidth="1"/>
+    <col min="14630" max="14848" width="11.8984375" style="49"/>
+    <col min="14849" max="14881" width="3.796875" style="49" customWidth="1"/>
+    <col min="14882" max="14885" width="3.69921875" style="49" customWidth="1"/>
+    <col min="14886" max="15104" width="11.8984375" style="49"/>
+    <col min="15105" max="15137" width="3.796875" style="49" customWidth="1"/>
+    <col min="15138" max="15141" width="3.69921875" style="49" customWidth="1"/>
+    <col min="15142" max="15360" width="11.8984375" style="49"/>
+    <col min="15361" max="15393" width="3.796875" style="49" customWidth="1"/>
+    <col min="15394" max="15397" width="3.69921875" style="49" customWidth="1"/>
+    <col min="15398" max="15616" width="11.8984375" style="49"/>
+    <col min="15617" max="15649" width="3.796875" style="49" customWidth="1"/>
+    <col min="15650" max="15653" width="3.69921875" style="49" customWidth="1"/>
+    <col min="15654" max="15872" width="11.8984375" style="49"/>
+    <col min="15873" max="15905" width="3.796875" style="49" customWidth="1"/>
+    <col min="15906" max="15909" width="3.69921875" style="49" customWidth="1"/>
+    <col min="15910" max="16128" width="11.8984375" style="49"/>
+    <col min="16129" max="16161" width="3.796875" style="49" customWidth="1"/>
+    <col min="16162" max="16165" width="3.69921875" style="49" customWidth="1"/>
+    <col min="16166" max="16384" width="11.8984375" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="19.8">
-      <c r="A1" s="50" t="s">
-        <v>101</v>
+      <c r="A1" s="44" t="s">
+        <v>52</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="54"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="48"/>
     </row>
     <row r="2" spans="1:177" ht="14.1" customHeight="1">
-      <c r="A2" s="147" t="s">
-        <v>90</v>
+      <c r="A2" s="119" t="s">
+        <v>41</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="141" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="141" t="s">
-        <v>102</v>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="120" t="s">
+        <v>53</v>
       </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="137" t="s">
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="148" t="s">
-        <v>103</v>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="131" t="s">
+        <v>54</v>
       </c>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="150"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="133"/>
     </row>
     <row r="3" spans="1:177" ht="14.1" customHeight="1">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="141" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="141" t="s">
-        <v>93</v>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="120" t="s">
+        <v>44</v>
       </c>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="137" t="s">
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="151">
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="134">
         <v>43593</v>
       </c>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="150"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="133"/>
     </row>
     <row r="4" spans="1:177" ht="14.1" customHeight="1">
-      <c r="A4" s="147"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="141" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="141" t="s">
-        <v>104</v>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="120" t="s">
+        <v>55</v>
       </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="137" t="s">
-        <v>95</v>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="123" t="s">
+        <v>46</v>
       </c>
-      <c r="AB4" s="137"/>
-      <c r="AC4" s="137"/>
-      <c r="AD4" s="148" t="s">
-        <v>114</v>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="131" t="s">
+        <v>65</v>
       </c>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="149"/>
-      <c r="AG4" s="150"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="133"/>
     </row>
     <row r="5" spans="1:177" ht="14.1" customHeight="1">
-      <c r="A5" s="147" t="s">
-        <v>97</v>
+      <c r="A5" s="119" t="s">
+        <v>48</v>
       </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="141" t="s">
-        <v>98</v>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120" t="s">
+        <v>49</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="141" t="s">
-        <v>105</v>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="120" t="s">
+        <v>56</v>
       </c>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="143"/>
-      <c r="AA5" s="137" t="s">
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="144" t="s">
-        <v>103</v>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="124" t="s">
+        <v>54</v>
       </c>
-      <c r="AE5" s="145"/>
-      <c r="AF5" s="145"/>
-      <c r="AG5" s="146"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="126"/>
     </row>
     <row r="6" spans="1:177" ht="14.1" customHeight="1">
-      <c r="A6" s="147"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="141" t="s">
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="141" t="s">
-        <v>106</v>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="120" t="s">
+        <v>57</v>
       </c>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="143"/>
-      <c r="AA6" s="137" t="s">
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="137"/>
-      <c r="AC6" s="137"/>
-      <c r="AD6" s="152">
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="130">
         <v>43611</v>
       </c>
-      <c r="AE6" s="145"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="146"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="126"/>
     </row>
-    <row r="7" spans="1:177" s="61" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="60"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="60"/>
-      <c r="AQ7" s="60"/>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="60"/>
-      <c r="AU7" s="60"/>
-      <c r="AV7" s="60"/>
-      <c r="AW7" s="60"/>
-      <c r="AX7" s="60"/>
-      <c r="AY7" s="60"/>
-      <c r="AZ7" s="60"/>
-      <c r="BA7" s="60"/>
-      <c r="BB7" s="60"/>
-      <c r="BC7" s="60"/>
-      <c r="BD7" s="60"/>
-      <c r="BE7" s="60"/>
-      <c r="BF7" s="60"/>
-      <c r="BG7" s="60"/>
-      <c r="BH7" s="60"/>
-      <c r="BI7" s="60"/>
-      <c r="BJ7" s="60"/>
-      <c r="BK7" s="60"/>
-      <c r="BL7" s="60"/>
-      <c r="BM7" s="60"/>
-      <c r="BN7" s="60"/>
-      <c r="BO7" s="60"/>
-      <c r="BP7" s="60"/>
-      <c r="BQ7" s="60"/>
-      <c r="BR7" s="60"/>
-      <c r="BS7" s="60"/>
-      <c r="BT7" s="60"/>
-      <c r="BU7" s="60"/>
-      <c r="BV7" s="60"/>
-      <c r="BW7" s="60"/>
-      <c r="BX7" s="60"/>
-      <c r="BY7" s="60"/>
-      <c r="BZ7" s="60"/>
-      <c r="CA7" s="60"/>
-      <c r="CB7" s="60"/>
-      <c r="CC7" s="60"/>
-      <c r="CD7" s="60"/>
-      <c r="CE7" s="60"/>
-      <c r="CF7" s="60"/>
-      <c r="CG7" s="60"/>
-      <c r="CH7" s="60"/>
-      <c r="CI7" s="60"/>
-      <c r="CJ7" s="60"/>
-      <c r="CK7" s="60"/>
-      <c r="CL7" s="60"/>
-      <c r="CM7" s="60"/>
-      <c r="CN7" s="60"/>
-      <c r="CO7" s="60"/>
-      <c r="CP7" s="60"/>
-      <c r="CQ7" s="60"/>
-      <c r="CR7" s="60"/>
-      <c r="CS7" s="60"/>
-      <c r="CT7" s="60"/>
-      <c r="CU7" s="60"/>
-      <c r="CV7" s="60"/>
-      <c r="CW7" s="60"/>
-      <c r="CX7" s="60"/>
-      <c r="CY7" s="60"/>
-      <c r="CZ7" s="60"/>
-      <c r="DA7" s="60"/>
-      <c r="DB7" s="60"/>
-      <c r="DC7" s="60"/>
-      <c r="DD7" s="60"/>
-      <c r="DE7" s="60"/>
-      <c r="DF7" s="60"/>
-      <c r="DG7" s="60"/>
-      <c r="DH7" s="60"/>
-      <c r="DI7" s="60"/>
-      <c r="DJ7" s="60"/>
-      <c r="DK7" s="60"/>
-      <c r="DL7" s="60"/>
-      <c r="DM7" s="60"/>
-      <c r="DN7" s="60"/>
-      <c r="DO7" s="60"/>
-      <c r="DP7" s="60"/>
-      <c r="DQ7" s="60"/>
-      <c r="DR7" s="60"/>
-      <c r="DS7" s="60"/>
-      <c r="DT7" s="60"/>
-      <c r="DU7" s="60"/>
-      <c r="DV7" s="60"/>
-      <c r="DW7" s="60"/>
-      <c r="DX7" s="60"/>
-      <c r="DY7" s="60"/>
-      <c r="DZ7" s="60"/>
-      <c r="EA7" s="60"/>
-      <c r="EB7" s="60"/>
-      <c r="EC7" s="60"/>
-      <c r="ED7" s="60"/>
-      <c r="EE7" s="60"/>
-      <c r="EF7" s="60"/>
-      <c r="EG7" s="60"/>
-      <c r="EH7" s="60"/>
-      <c r="EI7" s="60"/>
-      <c r="EJ7" s="60"/>
-      <c r="EK7" s="60"/>
-      <c r="EL7" s="60"/>
-      <c r="EM7" s="60"/>
-      <c r="EN7" s="60"/>
-      <c r="EO7" s="60"/>
-      <c r="EP7" s="60"/>
-      <c r="EQ7" s="60"/>
-      <c r="ER7" s="60"/>
-      <c r="ES7" s="60"/>
-      <c r="ET7" s="60"/>
-      <c r="EU7" s="60"/>
-      <c r="EV7" s="60"/>
-      <c r="EW7" s="60"/>
-      <c r="EX7" s="60"/>
-      <c r="EY7" s="60"/>
-      <c r="EZ7" s="60"/>
-      <c r="FA7" s="60"/>
-      <c r="FB7" s="60"/>
-      <c r="FC7" s="60"/>
-      <c r="FD7" s="60"/>
-      <c r="FE7" s="60"/>
-      <c r="FF7" s="60"/>
-      <c r="FG7" s="60"/>
-      <c r="FH7" s="60"/>
-      <c r="FI7" s="60"/>
-      <c r="FJ7" s="60"/>
-      <c r="FK7" s="60"/>
-      <c r="FL7" s="60"/>
-      <c r="FM7" s="60"/>
-      <c r="FN7" s="60"/>
-      <c r="FO7" s="60"/>
-      <c r="FP7" s="60"/>
-      <c r="FQ7" s="60"/>
-      <c r="FR7" s="60"/>
-      <c r="FS7" s="60"/>
-      <c r="FT7" s="60"/>
-      <c r="FU7" s="60"/>
+    <row r="7" spans="1:177" s="55" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="54"/>
+      <c r="AV7" s="54"/>
+      <c r="AW7" s="54"/>
+      <c r="AX7" s="54"/>
+      <c r="AY7" s="54"/>
+      <c r="AZ7" s="54"/>
+      <c r="BA7" s="54"/>
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="54"/>
+      <c r="BD7" s="54"/>
+      <c r="BE7" s="54"/>
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="54"/>
+      <c r="BH7" s="54"/>
+      <c r="BI7" s="54"/>
+      <c r="BJ7" s="54"/>
+      <c r="BK7" s="54"/>
+      <c r="BL7" s="54"/>
+      <c r="BM7" s="54"/>
+      <c r="BN7" s="54"/>
+      <c r="BO7" s="54"/>
+      <c r="BP7" s="54"/>
+      <c r="BQ7" s="54"/>
+      <c r="BR7" s="54"/>
+      <c r="BS7" s="54"/>
+      <c r="BT7" s="54"/>
+      <c r="BU7" s="54"/>
+      <c r="BV7" s="54"/>
+      <c r="BW7" s="54"/>
+      <c r="BX7" s="54"/>
+      <c r="BY7" s="54"/>
+      <c r="BZ7" s="54"/>
+      <c r="CA7" s="54"/>
+      <c r="CB7" s="54"/>
+      <c r="CC7" s="54"/>
+      <c r="CD7" s="54"/>
+      <c r="CE7" s="54"/>
+      <c r="CF7" s="54"/>
+      <c r="CG7" s="54"/>
+      <c r="CH7" s="54"/>
+      <c r="CI7" s="54"/>
+      <c r="CJ7" s="54"/>
+      <c r="CK7" s="54"/>
+      <c r="CL7" s="54"/>
+      <c r="CM7" s="54"/>
+      <c r="CN7" s="54"/>
+      <c r="CO7" s="54"/>
+      <c r="CP7" s="54"/>
+      <c r="CQ7" s="54"/>
+      <c r="CR7" s="54"/>
+      <c r="CS7" s="54"/>
+      <c r="CT7" s="54"/>
+      <c r="CU7" s="54"/>
+      <c r="CV7" s="54"/>
+      <c r="CW7" s="54"/>
+      <c r="CX7" s="54"/>
+      <c r="CY7" s="54"/>
+      <c r="CZ7" s="54"/>
+      <c r="DA7" s="54"/>
+      <c r="DB7" s="54"/>
+      <c r="DC7" s="54"/>
+      <c r="DD7" s="54"/>
+      <c r="DE7" s="54"/>
+      <c r="DF7" s="54"/>
+      <c r="DG7" s="54"/>
+      <c r="DH7" s="54"/>
+      <c r="DI7" s="54"/>
+      <c r="DJ7" s="54"/>
+      <c r="DK7" s="54"/>
+      <c r="DL7" s="54"/>
+      <c r="DM7" s="54"/>
+      <c r="DN7" s="54"/>
+      <c r="DO7" s="54"/>
+      <c r="DP7" s="54"/>
+      <c r="DQ7" s="54"/>
+      <c r="DR7" s="54"/>
+      <c r="DS7" s="54"/>
+      <c r="DT7" s="54"/>
+      <c r="DU7" s="54"/>
+      <c r="DV7" s="54"/>
+      <c r="DW7" s="54"/>
+      <c r="DX7" s="54"/>
+      <c r="DY7" s="54"/>
+      <c r="DZ7" s="54"/>
+      <c r="EA7" s="54"/>
+      <c r="EB7" s="54"/>
+      <c r="EC7" s="54"/>
+      <c r="ED7" s="54"/>
+      <c r="EE7" s="54"/>
+      <c r="EF7" s="54"/>
+      <c r="EG7" s="54"/>
+      <c r="EH7" s="54"/>
+      <c r="EI7" s="54"/>
+      <c r="EJ7" s="54"/>
+      <c r="EK7" s="54"/>
+      <c r="EL7" s="54"/>
+      <c r="EM7" s="54"/>
+      <c r="EN7" s="54"/>
+      <c r="EO7" s="54"/>
+      <c r="EP7" s="54"/>
+      <c r="EQ7" s="54"/>
+      <c r="ER7" s="54"/>
+      <c r="ES7" s="54"/>
+      <c r="ET7" s="54"/>
+      <c r="EU7" s="54"/>
+      <c r="EV7" s="54"/>
+      <c r="EW7" s="54"/>
+      <c r="EX7" s="54"/>
+      <c r="EY7" s="54"/>
+      <c r="EZ7" s="54"/>
+      <c r="FA7" s="54"/>
+      <c r="FB7" s="54"/>
+      <c r="FC7" s="54"/>
+      <c r="FD7" s="54"/>
+      <c r="FE7" s="54"/>
+      <c r="FF7" s="54"/>
+      <c r="FG7" s="54"/>
+      <c r="FH7" s="54"/>
+      <c r="FI7" s="54"/>
+      <c r="FJ7" s="54"/>
+      <c r="FK7" s="54"/>
+      <c r="FL7" s="54"/>
+      <c r="FM7" s="54"/>
+      <c r="FN7" s="54"/>
+      <c r="FO7" s="54"/>
+      <c r="FP7" s="54"/>
+      <c r="FQ7" s="54"/>
+      <c r="FR7" s="54"/>
+      <c r="FS7" s="54"/>
+      <c r="FT7" s="54"/>
+      <c r="FU7" s="54"/>
     </row>
-    <row r="8" spans="1:177" s="61" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="62" t="s">
-        <v>107</v>
+    <row r="8" spans="1:177" s="55" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="56" t="s">
+        <v>58</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -15467,150 +15067,150 @@
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="12"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="60"/>
-      <c r="AP8" s="60"/>
-      <c r="AQ8" s="60"/>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="60"/>
-      <c r="AT8" s="60"/>
-      <c r="AU8" s="60"/>
-      <c r="AV8" s="60"/>
-      <c r="AW8" s="60"/>
-      <c r="AX8" s="60"/>
-      <c r="AY8" s="60"/>
-      <c r="AZ8" s="60"/>
-      <c r="BA8" s="60"/>
-      <c r="BB8" s="60"/>
-      <c r="BC8" s="60"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="60"/>
-      <c r="BF8" s="60"/>
-      <c r="BG8" s="60"/>
-      <c r="BH8" s="60"/>
-      <c r="BI8" s="60"/>
-      <c r="BJ8" s="60"/>
-      <c r="BK8" s="60"/>
-      <c r="BL8" s="60"/>
-      <c r="BM8" s="60"/>
-      <c r="BN8" s="60"/>
-      <c r="BO8" s="60"/>
-      <c r="BP8" s="60"/>
-      <c r="BQ8" s="60"/>
-      <c r="BR8" s="60"/>
-      <c r="BS8" s="60"/>
-      <c r="BT8" s="60"/>
-      <c r="BU8" s="60"/>
-      <c r="BV8" s="60"/>
-      <c r="BW8" s="60"/>
-      <c r="BX8" s="60"/>
-      <c r="BY8" s="60"/>
-      <c r="BZ8" s="60"/>
-      <c r="CA8" s="60"/>
-      <c r="CB8" s="60"/>
-      <c r="CC8" s="60"/>
-      <c r="CD8" s="60"/>
-      <c r="CE8" s="60"/>
-      <c r="CF8" s="60"/>
-      <c r="CG8" s="60"/>
-      <c r="CH8" s="60"/>
-      <c r="CI8" s="60"/>
-      <c r="CJ8" s="60"/>
-      <c r="CK8" s="60"/>
-      <c r="CL8" s="60"/>
-      <c r="CM8" s="60"/>
-      <c r="CN8" s="60"/>
-      <c r="CO8" s="60"/>
-      <c r="CP8" s="60"/>
-      <c r="CQ8" s="60"/>
-      <c r="CR8" s="60"/>
-      <c r="CS8" s="60"/>
-      <c r="CT8" s="60"/>
-      <c r="CU8" s="60"/>
-      <c r="CV8" s="60"/>
-      <c r="CW8" s="60"/>
-      <c r="CX8" s="60"/>
-      <c r="CY8" s="60"/>
-      <c r="CZ8" s="60"/>
-      <c r="DA8" s="60"/>
-      <c r="DB8" s="60"/>
-      <c r="DC8" s="60"/>
-      <c r="DD8" s="60"/>
-      <c r="DE8" s="60"/>
-      <c r="DF8" s="60"/>
-      <c r="DG8" s="60"/>
-      <c r="DH8" s="60"/>
-      <c r="DI8" s="60"/>
-      <c r="DJ8" s="60"/>
-      <c r="DK8" s="60"/>
-      <c r="DL8" s="60"/>
-      <c r="DM8" s="60"/>
-      <c r="DN8" s="60"/>
-      <c r="DO8" s="60"/>
-      <c r="DP8" s="60"/>
-      <c r="DQ8" s="60"/>
-      <c r="DR8" s="60"/>
-      <c r="DS8" s="60"/>
-      <c r="DT8" s="60"/>
-      <c r="DU8" s="60"/>
-      <c r="DV8" s="60"/>
-      <c r="DW8" s="60"/>
-      <c r="DX8" s="60"/>
-      <c r="DY8" s="60"/>
-      <c r="DZ8" s="60"/>
-      <c r="EA8" s="60"/>
-      <c r="EB8" s="60"/>
-      <c r="EC8" s="60"/>
-      <c r="ED8" s="60"/>
-      <c r="EE8" s="60"/>
-      <c r="EF8" s="60"/>
-      <c r="EG8" s="60"/>
-      <c r="EH8" s="60"/>
-      <c r="EI8" s="60"/>
-      <c r="EJ8" s="60"/>
-      <c r="EK8" s="60"/>
-      <c r="EL8" s="60"/>
-      <c r="EM8" s="60"/>
-      <c r="EN8" s="60"/>
-      <c r="EO8" s="60"/>
-      <c r="EP8" s="60"/>
-      <c r="EQ8" s="60"/>
-      <c r="ER8" s="60"/>
-      <c r="ES8" s="60"/>
-      <c r="ET8" s="60"/>
-      <c r="EU8" s="60"/>
-      <c r="EV8" s="60"/>
-      <c r="EW8" s="60"/>
-      <c r="EX8" s="60"/>
-      <c r="EY8" s="60"/>
-      <c r="EZ8" s="60"/>
-      <c r="FA8" s="60"/>
-      <c r="FB8" s="60"/>
-      <c r="FC8" s="60"/>
-      <c r="FD8" s="60"/>
-      <c r="FE8" s="60"/>
-      <c r="FF8" s="60"/>
-      <c r="FG8" s="60"/>
-      <c r="FH8" s="60"/>
-      <c r="FI8" s="60"/>
-      <c r="FJ8" s="60"/>
-      <c r="FK8" s="60"/>
-      <c r="FL8" s="60"/>
-      <c r="FM8" s="60"/>
-      <c r="FN8" s="60"/>
-      <c r="FO8" s="60"/>
-      <c r="FP8" s="60"/>
-      <c r="FQ8" s="60"/>
-      <c r="FR8" s="60"/>
-      <c r="FS8" s="60"/>
-      <c r="FT8" s="60"/>
-      <c r="FU8" s="60"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="54"/>
+      <c r="AV8" s="54"/>
+      <c r="AW8" s="54"/>
+      <c r="AX8" s="54"/>
+      <c r="AY8" s="54"/>
+      <c r="AZ8" s="54"/>
+      <c r="BA8" s="54"/>
+      <c r="BB8" s="54"/>
+      <c r="BC8" s="54"/>
+      <c r="BD8" s="54"/>
+      <c r="BE8" s="54"/>
+      <c r="BF8" s="54"/>
+      <c r="BG8" s="54"/>
+      <c r="BH8" s="54"/>
+      <c r="BI8" s="54"/>
+      <c r="BJ8" s="54"/>
+      <c r="BK8" s="54"/>
+      <c r="BL8" s="54"/>
+      <c r="BM8" s="54"/>
+      <c r="BN8" s="54"/>
+      <c r="BO8" s="54"/>
+      <c r="BP8" s="54"/>
+      <c r="BQ8" s="54"/>
+      <c r="BR8" s="54"/>
+      <c r="BS8" s="54"/>
+      <c r="BT8" s="54"/>
+      <c r="BU8" s="54"/>
+      <c r="BV8" s="54"/>
+      <c r="BW8" s="54"/>
+      <c r="BX8" s="54"/>
+      <c r="BY8" s="54"/>
+      <c r="BZ8" s="54"/>
+      <c r="CA8" s="54"/>
+      <c r="CB8" s="54"/>
+      <c r="CC8" s="54"/>
+      <c r="CD8" s="54"/>
+      <c r="CE8" s="54"/>
+      <c r="CF8" s="54"/>
+      <c r="CG8" s="54"/>
+      <c r="CH8" s="54"/>
+      <c r="CI8" s="54"/>
+      <c r="CJ8" s="54"/>
+      <c r="CK8" s="54"/>
+      <c r="CL8" s="54"/>
+      <c r="CM8" s="54"/>
+      <c r="CN8" s="54"/>
+      <c r="CO8" s="54"/>
+      <c r="CP8" s="54"/>
+      <c r="CQ8" s="54"/>
+      <c r="CR8" s="54"/>
+      <c r="CS8" s="54"/>
+      <c r="CT8" s="54"/>
+      <c r="CU8" s="54"/>
+      <c r="CV8" s="54"/>
+      <c r="CW8" s="54"/>
+      <c r="CX8" s="54"/>
+      <c r="CY8" s="54"/>
+      <c r="CZ8" s="54"/>
+      <c r="DA8" s="54"/>
+      <c r="DB8" s="54"/>
+      <c r="DC8" s="54"/>
+      <c r="DD8" s="54"/>
+      <c r="DE8" s="54"/>
+      <c r="DF8" s="54"/>
+      <c r="DG8" s="54"/>
+      <c r="DH8" s="54"/>
+      <c r="DI8" s="54"/>
+      <c r="DJ8" s="54"/>
+      <c r="DK8" s="54"/>
+      <c r="DL8" s="54"/>
+      <c r="DM8" s="54"/>
+      <c r="DN8" s="54"/>
+      <c r="DO8" s="54"/>
+      <c r="DP8" s="54"/>
+      <c r="DQ8" s="54"/>
+      <c r="DR8" s="54"/>
+      <c r="DS8" s="54"/>
+      <c r="DT8" s="54"/>
+      <c r="DU8" s="54"/>
+      <c r="DV8" s="54"/>
+      <c r="DW8" s="54"/>
+      <c r="DX8" s="54"/>
+      <c r="DY8" s="54"/>
+      <c r="DZ8" s="54"/>
+      <c r="EA8" s="54"/>
+      <c r="EB8" s="54"/>
+      <c r="EC8" s="54"/>
+      <c r="ED8" s="54"/>
+      <c r="EE8" s="54"/>
+      <c r="EF8" s="54"/>
+      <c r="EG8" s="54"/>
+      <c r="EH8" s="54"/>
+      <c r="EI8" s="54"/>
+      <c r="EJ8" s="54"/>
+      <c r="EK8" s="54"/>
+      <c r="EL8" s="54"/>
+      <c r="EM8" s="54"/>
+      <c r="EN8" s="54"/>
+      <c r="EO8" s="54"/>
+      <c r="EP8" s="54"/>
+      <c r="EQ8" s="54"/>
+      <c r="ER8" s="54"/>
+      <c r="ES8" s="54"/>
+      <c r="ET8" s="54"/>
+      <c r="EU8" s="54"/>
+      <c r="EV8" s="54"/>
+      <c r="EW8" s="54"/>
+      <c r="EX8" s="54"/>
+      <c r="EY8" s="54"/>
+      <c r="EZ8" s="54"/>
+      <c r="FA8" s="54"/>
+      <c r="FB8" s="54"/>
+      <c r="FC8" s="54"/>
+      <c r="FD8" s="54"/>
+      <c r="FE8" s="54"/>
+      <c r="FF8" s="54"/>
+      <c r="FG8" s="54"/>
+      <c r="FH8" s="54"/>
+      <c r="FI8" s="54"/>
+      <c r="FJ8" s="54"/>
+      <c r="FK8" s="54"/>
+      <c r="FL8" s="54"/>
+      <c r="FM8" s="54"/>
+      <c r="FN8" s="54"/>
+      <c r="FO8" s="54"/>
+      <c r="FP8" s="54"/>
+      <c r="FQ8" s="54"/>
+      <c r="FR8" s="54"/>
+      <c r="FS8" s="54"/>
+      <c r="FT8" s="54"/>
+      <c r="FU8" s="54"/>
     </row>
     <row r="9" spans="1:177" ht="12.75" customHeight="1">
       <c r="A9" s="10"/>
@@ -15720,7 +15320,7 @@
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="64"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -15755,12 +15355,12 @@
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="64"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="64"/>
+      <c r="H13" s="58"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -15784,18 +15384,18 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
-      <c r="AF13" s="64"/>
+      <c r="AF13" s="58"/>
       <c r="AG13" s="12"/>
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="64"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="64"/>
+      <c r="H14" s="58"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -15803,7 +15403,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="65"/>
+      <c r="P14" s="59"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -15819,18 +15419,18 @@
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
-      <c r="AF14" s="64"/>
+      <c r="AF14" s="58"/>
       <c r="AG14" s="12"/>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="64"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="64"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -15838,7 +15438,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="65"/>
+      <c r="P15" s="59"/>
       <c r="R15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
@@ -15846,18 +15446,18 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
-      <c r="AF15" s="64"/>
+      <c r="AF15" s="58"/>
       <c r="AG15" s="12"/>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="64"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="64"/>
+      <c r="H16" s="58"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -15865,8 +15465,8 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="64"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="58"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="Z16" s="11"/>
@@ -15875,18 +15475,18 @@
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
-      <c r="AF16" s="64"/>
+      <c r="AF16" s="58"/>
       <c r="AG16" s="12"/>
     </row>
     <row r="17" spans="1:33" ht="12.75" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="64"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="64"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -15894,8 +15494,8 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="64"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="58"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="Z17" s="11"/>
@@ -15904,18 +15504,18 @@
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
-      <c r="AF17" s="64"/>
+      <c r="AF17" s="58"/>
       <c r="AG17" s="12"/>
     </row>
     <row r="18" spans="1:33" ht="12.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="64"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="64"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -15923,8 +15523,8 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="64"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="58"/>
       <c r="R18" s="11"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
@@ -15932,18 +15532,18 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
-      <c r="AF18" s="64"/>
+      <c r="AF18" s="58"/>
       <c r="AG18" s="12"/>
     </row>
     <row r="19" spans="1:33" ht="12.75" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="64"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="64"/>
+      <c r="H19" s="58"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -15951,8 +15551,8 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="64"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="58"/>
       <c r="R19" s="11"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
@@ -15960,18 +15560,18 @@
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
-      <c r="AF19" s="64"/>
+      <c r="AF19" s="58"/>
       <c r="AG19" s="12"/>
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="64"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="64"/>
+      <c r="H20" s="58"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -15979,28 +15579,28 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="64"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="58"/>
       <c r="R20" s="11"/>
-      <c r="U20" s="66"/>
+      <c r="U20" s="60"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
-      <c r="AF20" s="64"/>
+      <c r="AF20" s="58"/>
       <c r="AG20" s="12"/>
     </row>
     <row r="21" spans="1:33" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="64"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="64"/>
+      <c r="H21" s="58"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -16008,28 +15608,28 @@
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="64"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="58"/>
       <c r="R21" s="11"/>
-      <c r="U21" s="66"/>
+      <c r="U21" s="60"/>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
-      <c r="AF21" s="64"/>
+      <c r="AF21" s="58"/>
       <c r="AG21" s="12"/>
     </row>
     <row r="22" spans="1:33" ht="12.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="64"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="64"/>
+      <c r="H22" s="58"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -16037,28 +15637,28 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="64"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="58"/>
       <c r="R22" s="11"/>
-      <c r="U22" s="66"/>
+      <c r="U22" s="60"/>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
-      <c r="AF22" s="64"/>
+      <c r="AF22" s="58"/>
       <c r="AG22" s="12"/>
     </row>
     <row r="23" spans="1:33" ht="12.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="64"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="64"/>
+      <c r="H23" s="58"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -16066,12 +15666,12 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="64"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="58"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="67"/>
+      <c r="U23" s="61"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -16082,18 +15682,18 @@
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
-      <c r="AF23" s="64"/>
+      <c r="AF23" s="58"/>
       <c r="AG23" s="12"/>
     </row>
     <row r="24" spans="1:33" ht="12.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="64"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="64"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -16101,12 +15701,12 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="64"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="58"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="67"/>
+      <c r="U24" s="61"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -16117,18 +15717,18 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
-      <c r="AF24" s="64"/>
+      <c r="AF24" s="58"/>
       <c r="AG24" s="12"/>
     </row>
     <row r="25" spans="1:33" ht="12.75" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="64"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="64"/>
+      <c r="H25" s="58"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -16136,14 +15736,14 @@
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="64"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="58"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
@@ -16152,18 +15752,18 @@
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
-      <c r="AF25" s="64"/>
+      <c r="AF25" s="58"/>
       <c r="AG25" s="12"/>
     </row>
     <row r="26" spans="1:33" ht="12.75" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="64"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="64"/>
+      <c r="H26" s="58"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -16171,12 +15771,12 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="64"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="58"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="67"/>
+      <c r="U26" s="61"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
@@ -16187,18 +15787,18 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
-      <c r="AF26" s="64"/>
+      <c r="AF26" s="58"/>
       <c r="AG26" s="12"/>
     </row>
     <row r="27" spans="1:33" ht="12.75" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="64"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="64"/>
+      <c r="H27" s="58"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
@@ -16206,12 +15806,12 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="64"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="58"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="67"/>
+      <c r="U27" s="61"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
@@ -16222,18 +15822,18 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
-      <c r="AF27" s="64"/>
+      <c r="AF27" s="58"/>
       <c r="AG27" s="12"/>
     </row>
     <row r="28" spans="1:33" ht="12.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="64"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="64"/>
+      <c r="H28" s="58"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -16241,11 +15841,11 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="64"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="58"/>
       <c r="R28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="67"/>
+      <c r="U28" s="61"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
@@ -16256,18 +15856,18 @@
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
-      <c r="AF28" s="64"/>
+      <c r="AF28" s="58"/>
       <c r="AG28" s="12"/>
     </row>
     <row r="29" spans="1:33" ht="12.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="64"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="64"/>
+      <c r="H29" s="58"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -16275,12 +15875,12 @@
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="64"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="58"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="67"/>
+      <c r="U29" s="61"/>
       <c r="V29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
@@ -16290,18 +15890,18 @@
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
-      <c r="AF29" s="64"/>
+      <c r="AF29" s="58"/>
       <c r="AG29" s="12"/>
     </row>
     <row r="30" spans="1:33" ht="12.75" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="64"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="64"/>
+      <c r="H30" s="58"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -16309,28 +15909,28 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="64"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="58"/>
       <c r="R30" s="11"/>
-      <c r="U30" s="66"/>
+      <c r="U30" s="60"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
-      <c r="AF30" s="64"/>
+      <c r="AF30" s="58"/>
       <c r="AG30" s="12"/>
     </row>
     <row r="31" spans="1:33" ht="12.75" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="64"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="64"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -16338,17 +15938,17 @@
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="64"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="58"/>
       <c r="R31" s="11"/>
-      <c r="U31" s="66"/>
+      <c r="U31" s="60"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
-      <c r="AF31" s="64"/>
+      <c r="AF31" s="58"/>
       <c r="AG31" s="12"/>
     </row>
     <row r="32" spans="1:33" ht="12.75" customHeight="1">
@@ -16367,10 +15967,10 @@
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
-      <c r="P32" s="65"/>
+      <c r="P32" s="59"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
-      <c r="U32" s="66"/>
+      <c r="U32" s="60"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
@@ -16385,7 +15985,7 @@
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -16398,7 +15998,7 @@
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
-      <c r="P33" s="65"/>
+      <c r="P33" s="59"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="Z33" s="11"/>
@@ -16416,7 +16016,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -16592,7 +16192,7 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -16630,7 +16230,7 @@
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -16802,187 +16402,178 @@
       <c r="AG44" s="12"/>
     </row>
     <row r="45" spans="1:33" ht="12.75" customHeight="1">
-      <c r="D45" s="55" t="s">
-        <v>110</v>
+      <c r="D45" s="49" t="s">
+        <v>61</v>
       </c>
-      <c r="AG45" s="70"/>
+      <c r="AG45" s="64"/>
     </row>
     <row r="46" spans="1:33" ht="12.75" customHeight="1">
-      <c r="AG46" s="70"/>
+      <c r="AG46" s="64"/>
     </row>
     <row r="47" spans="1:33" ht="12.75" customHeight="1">
-      <c r="AG47" s="70"/>
+      <c r="AG47" s="64"/>
     </row>
     <row r="48" spans="1:33" ht="12.75" customHeight="1">
-      <c r="AG48" s="70"/>
+      <c r="AG48" s="64"/>
     </row>
     <row r="49" spans="1:33" ht="12.75" customHeight="1">
-      <c r="AG49" s="70"/>
+      <c r="AG49" s="64"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A50" s="71"/>
-      <c r="AG50" s="70"/>
+      <c r="A50" s="65"/>
+      <c r="AG50" s="64"/>
     </row>
     <row r="51" spans="1:33" ht="12.75" customHeight="1">
-      <c r="AG51" s="70"/>
+      <c r="AG51" s="64"/>
     </row>
     <row r="52" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A52" s="55" t="s">
-        <v>111</v>
+      <c r="A52" s="49" t="s">
+        <v>62</v>
       </c>
-      <c r="AG52" s="70"/>
+      <c r="AG52" s="64"/>
     </row>
     <row r="53" spans="1:33" ht="12.75" customHeight="1">
-      <c r="AG53" s="70"/>
+      <c r="AG53" s="64"/>
     </row>
     <row r="54" spans="1:33" ht="12.75" customHeight="1">
-      <c r="AG54" s="70"/>
+      <c r="AG54" s="64"/>
     </row>
     <row r="55" spans="1:33" ht="12.75" customHeight="1">
-      <c r="AG55" s="70"/>
+      <c r="AG55" s="64"/>
     </row>
     <row r="56" spans="1:33" ht="12.75" customHeight="1">
-      <c r="AG56" s="70"/>
+      <c r="AG56" s="64"/>
     </row>
     <row r="57" spans="1:33" ht="12.75" customHeight="1">
-      <c r="AG57" s="70"/>
+      <c r="AG57" s="64"/>
     </row>
     <row r="58" spans="1:33" ht="12.75" customHeight="1">
-      <c r="AG58" s="70"/>
+      <c r="AG58" s="64"/>
     </row>
     <row r="59" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E59" s="72"/>
-      <c r="AG59" s="70"/>
+      <c r="E59" s="66"/>
+      <c r="AG59" s="64"/>
     </row>
     <row r="60" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E60" s="72"/>
-      <c r="I60" s="55" t="s">
-        <v>112</v>
+      <c r="E60" s="66"/>
+      <c r="I60" s="49" t="s">
+        <v>63</v>
       </c>
-      <c r="AG60" s="70"/>
+      <c r="AG60" s="64"/>
     </row>
     <row r="61" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E61" s="72"/>
-      <c r="AG61" s="70"/>
+      <c r="E61" s="66"/>
+      <c r="AG61" s="64"/>
     </row>
     <row r="62" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E62" s="72"/>
-      <c r="AG62" s="70"/>
+      <c r="E62" s="66"/>
+      <c r="AG62" s="64"/>
     </row>
     <row r="63" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E63" s="72"/>
-      <c r="AG63" s="70"/>
+      <c r="E63" s="66"/>
+      <c r="AG63" s="64"/>
     </row>
     <row r="64" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E64" s="72"/>
-      <c r="AG64" s="70"/>
+      <c r="E64" s="66"/>
+      <c r="AG64" s="64"/>
     </row>
     <row r="65" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E65" s="72"/>
-      <c r="AG65" s="70"/>
+      <c r="E65" s="66"/>
+      <c r="AG65" s="64"/>
     </row>
     <row r="66" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E66" s="72"/>
-      <c r="AG66" s="70"/>
+      <c r="E66" s="66"/>
+      <c r="AG66" s="64"/>
     </row>
     <row r="67" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E67" s="72"/>
-      <c r="AG67" s="70"/>
+      <c r="E67" s="66"/>
+      <c r="AG67" s="64"/>
     </row>
     <row r="68" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E68" s="72"/>
-      <c r="AG68" s="70"/>
+      <c r="E68" s="66"/>
+      <c r="AG68" s="64"/>
     </row>
     <row r="69" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E69" s="72"/>
-      <c r="AG69" s="70"/>
+      <c r="E69" s="66"/>
+      <c r="AG69" s="64"/>
     </row>
     <row r="70" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E70" s="72"/>
-      <c r="AG70" s="70"/>
+      <c r="E70" s="66"/>
+      <c r="AG70" s="64"/>
     </row>
     <row r="71" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E71" s="72"/>
-      <c r="AG71" s="70"/>
+      <c r="E71" s="66"/>
+      <c r="AG71" s="64"/>
     </row>
     <row r="72" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E72" s="72"/>
-      <c r="AG72" s="70"/>
+      <c r="E72" s="66"/>
+      <c r="AG72" s="64"/>
     </row>
     <row r="73" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E73" s="72"/>
-      <c r="AG73" s="70"/>
+      <c r="E73" s="66"/>
+      <c r="AG73" s="64"/>
     </row>
     <row r="74" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E74" s="72"/>
-      <c r="AG74" s="70"/>
+      <c r="E74" s="66"/>
+      <c r="AG74" s="64"/>
     </row>
     <row r="75" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E75" s="72"/>
-      <c r="AG75" s="70"/>
+      <c r="E75" s="66"/>
+      <c r="AG75" s="64"/>
     </row>
     <row r="76" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E76" s="72"/>
-      <c r="AG76" s="70"/>
+      <c r="E76" s="66"/>
+      <c r="AG76" s="64"/>
     </row>
     <row r="77" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E77" s="72"/>
-      <c r="AG77" s="70"/>
+      <c r="E77" s="66"/>
+      <c r="AG77" s="64"/>
     </row>
     <row r="78" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E78" s="72"/>
-      <c r="AG78" s="70"/>
+      <c r="E78" s="66"/>
+      <c r="AG78" s="64"/>
     </row>
     <row r="79" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E79" s="72"/>
-      <c r="AG79" s="70"/>
+      <c r="E79" s="66"/>
+      <c r="AG79" s="64"/>
     </row>
     <row r="80" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A80" s="73"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="73"/>
-      <c r="K80" s="73"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="73"/>
-      <c r="N80" s="73"/>
-      <c r="O80" s="73"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="73"/>
-      <c r="R80" s="73"/>
-      <c r="S80" s="73"/>
-      <c r="T80" s="73"/>
-      <c r="U80" s="73"/>
-      <c r="V80" s="73"/>
-      <c r="W80" s="73"/>
-      <c r="X80" s="73"/>
-      <c r="Y80" s="73"/>
-      <c r="Z80" s="73"/>
-      <c r="AA80" s="73"/>
-      <c r="AB80" s="73"/>
-      <c r="AC80" s="73"/>
-      <c r="AD80" s="73"/>
-      <c r="AE80" s="75"/>
-      <c r="AF80" s="75"/>
-      <c r="AG80" s="76"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="67"/>
+      <c r="N80" s="67"/>
+      <c r="O80" s="67"/>
+      <c r="P80" s="67"/>
+      <c r="Q80" s="67"/>
+      <c r="R80" s="67"/>
+      <c r="S80" s="67"/>
+      <c r="T80" s="67"/>
+      <c r="U80" s="67"/>
+      <c r="V80" s="67"/>
+      <c r="W80" s="67"/>
+      <c r="X80" s="67"/>
+      <c r="Y80" s="67"/>
+      <c r="Z80" s="67"/>
+      <c r="AA80" s="67"/>
+      <c r="AB80" s="67"/>
+      <c r="AC80" s="67"/>
+      <c r="AD80" s="67"/>
+      <c r="AE80" s="69"/>
+      <c r="AF80" s="69"/>
+      <c r="AG80" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:Z2"/>
@@ -16996,6 +16587,15 @@
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/SleepLeader_機能設計書.xlsx
+++ b/設計書/SleepLeader_機能設計書.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SleepLeader\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA43410E-33BD-4AE1-A4B5-C16524B7D241}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAC016D-CF42-46FD-B608-625FF86450A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="22596" windowHeight="9804" activeTab="1" xr2:uid="{1A4B43E4-094B-4C0A-9C2B-62039C435C55}"/>
+    <workbookView xWindow="648" yWindow="432" windowWidth="22596" windowHeight="11604" activeTab="2" xr2:uid="{1A4B43E4-094B-4C0A-9C2B-62039C435C55}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="機能一覧" sheetId="1" r:id="rId2"/>
-    <sheet name="クラス図" sheetId="16" r:id="rId3"/>
-    <sheet name="シーケンス図　ログイン機能" sheetId="5" r:id="rId4"/>
+    <sheet name="クラス図" sheetId="17" r:id="rId3"/>
+    <sheet name="クラス図(参考用)" sheetId="16" r:id="rId4"/>
+    <sheet name="シーケンス図　ログイン機能" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="118">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="4">
@@ -825,6 +826,102 @@
     </rPh>
     <phoneticPr fontId="15"/>
   </si>
+  <si>
+    <t>SleepLeader</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SleepLeader　機能設計書</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SleepLeader　クラス図</t>
+    <rPh sb="15" eb="16">
+      <t>z</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>可視性</t>
+    <rPh sb="0" eb="3">
+      <t>カs</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>（c）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>(i)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>インタフェース</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>タイマー機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>タイマー設定機能</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>FU4-1</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>BGMを流す時間を設定できる</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
 </sst>
 </file>
 
@@ -1194,7 +1291,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1330,6 +1427,30 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1443,6 +1564,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1452,26 +1588,20 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1480,9 +1610,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1494,14 +1621,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1518,47 +1639,47 @@
     <xf numFmtId="31" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1584,6 +1705,1042 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>288472</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6623</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="図形グループ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54B934-6591-4A8B-B286-95D0A3E979C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5965371" y="4480653"/>
+          <a:ext cx="4381501" cy="1575587"/>
+          <a:chOff x="338665" y="2353733"/>
+          <a:chExt cx="4767244" cy="795643"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841A262D-C22C-4B2C-91F2-A4690E7E7C53}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2353733"/>
+            <a:ext cx="4767243" cy="283374"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>c)sleepLeader.Alarm</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F528FD-BF91-451E-BFC2-D7690D199B9F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="345875" y="2747850"/>
+            <a:ext cx="4758431" cy="401526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0"/>
+              <a:t> AlarmSetListener()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0"/>
+              <a:t>- MusicListener()</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B65DC5B-AC8F-4440-A4C9-2593927CC168}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338665" y="2651275"/>
+            <a:ext cx="4764725" cy="73153"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>181443</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>295744</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129676</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="図形グループ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D906A97-8F69-449F-9599-B9711214CEEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5972643" y="6596053"/>
+          <a:ext cx="4381501" cy="1438545"/>
+          <a:chOff x="338665" y="2353733"/>
+          <a:chExt cx="4767244" cy="839143"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571C2883-7CD2-46CE-9101-10F28A9FB00E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2353733"/>
+            <a:ext cx="4767243" cy="283374"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>c)sleepLeader.AlarmSet</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A4C472-B0E4-470A-8D25-E5A2C9160E10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2729204"/>
+            <a:ext cx="4758431" cy="463672"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>- AlarmStopListener()</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="テキスト ボックス 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691E53E7-ADF3-44FD-AE73-14DBC0446754}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338665" y="2651276"/>
+            <a:ext cx="4764725" cy="56675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>52189</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>166490</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2060</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="図形グループ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C303EEC-DD25-4F1A-AA06-FE856777B26F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11939389" y="4616747"/>
+          <a:ext cx="4381501" cy="1434930"/>
+          <a:chOff x="338665" y="2353733"/>
+          <a:chExt cx="4767244" cy="839143"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E329B6E4-4113-4A6A-9DB6-7166540B652D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2353733"/>
+            <a:ext cx="4767243" cy="283374"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>c)sleepLeader.AlarmStop</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6E43AC-7460-4ED3-9327-7B0C76A0A9BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2729204"/>
+            <a:ext cx="4758431" cy="463672"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>- AlarmListener()</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="テキスト ボックス 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C82B12B-77D8-477C-93F0-3037E8E7DACF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338665" y="2651276"/>
+            <a:ext cx="4764725" cy="56675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165953</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>280254</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142069</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="図形グループ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A60B6A-7626-44EE-AE41-AEBB16AC6C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5957153" y="1970184"/>
+          <a:ext cx="4381501" cy="1438546"/>
+          <a:chOff x="338665" y="2353733"/>
+          <a:chExt cx="4767244" cy="839143"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01694933-915A-4D78-897B-225448DACF75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2353733"/>
+            <a:ext cx="4767243" cy="283374"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>c)sleepLeader.Music</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="テキスト ボックス 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFCA0EA-192D-426D-9871-206E9B09BFC1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338666" y="2729204"/>
+            <a:ext cx="4758431" cy="463672"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>- AlarmListener()</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキスト ボックス 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810299C4-B512-4374-A380-3E6DB6A23F96}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="338665" y="2651276"/>
+            <a:ext cx="4764725" cy="56675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219055</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB13B8A-E407-4E18-AA20-9AF09901837C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143855" y="3408730"/>
+          <a:ext cx="12267" cy="1071923"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>233899</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>238594</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82610</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C834BB7-71F6-40BB-A4A2-F0644959319B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8158699" y="6056240"/>
+          <a:ext cx="4695" cy="539813"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>286999</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>52190</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>72885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7775B953-5832-4462-95AB-86401385B541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="1"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10345399" y="5655239"/>
+          <a:ext cx="1593991" cy="3437"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>287645</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>105291</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="コネクタ: カギ線 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794F6A72-DC18-45A3-A328-B7D336D820E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10346045" y="6051677"/>
+          <a:ext cx="3780046" cy="1585484"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1613,8 +2770,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="292825" y="7388134"/>
-          <a:ext cx="3924300" cy="784860"/>
+          <a:off x="292825" y="7491170"/>
+          <a:ext cx="3924300" cy="794799"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -1820,8 +2977,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5329904" y="8888753"/>
-          <a:ext cx="3924300" cy="1977368"/>
+          <a:off x="5329904" y="9011667"/>
+          <a:ext cx="3924300" cy="2007185"/>
           <a:chOff x="338666" y="2353736"/>
           <a:chExt cx="4538133" cy="900092"/>
         </a:xfrm>
@@ -2066,8 +3223,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13479780" y="4076700"/>
-          <a:ext cx="2034540" cy="1089660"/>
+          <a:off x="13479780" y="4130040"/>
+          <a:ext cx="2034540" cy="1106225"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="1068888"/>
         </a:xfrm>
@@ -2288,8 +3445,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10198826" y="8407546"/>
-          <a:ext cx="3176966" cy="2357337"/>
+          <a:off x="10198826" y="8523834"/>
+          <a:ext cx="3176966" cy="2390467"/>
           <a:chOff x="-971708" y="2519485"/>
           <a:chExt cx="4212005" cy="660350"/>
         </a:xfrm>
@@ -2550,8 +3707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15217140" y="8526780"/>
-          <a:ext cx="2552700" cy="2354580"/>
+          <a:off x="15217140" y="8646381"/>
+          <a:ext cx="2552700" cy="2387710"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="674850"/>
         </a:xfrm>
@@ -2776,8 +3933,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="320040" y="2567940"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="320040" y="2601402"/>
+          <a:ext cx="3787140" cy="749079"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -2984,8 +4141,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="327660" y="3482340"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="327660" y="3529054"/>
+          <a:ext cx="3787140" cy="749079"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -3192,8 +4349,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4648199" y="3595293"/>
-          <a:ext cx="4381501" cy="1418667"/>
+          <a:off x="4648199" y="3642007"/>
+          <a:ext cx="4381501" cy="1438545"/>
           <a:chOff x="338665" y="2353733"/>
           <a:chExt cx="4767244" cy="839143"/>
         </a:xfrm>
@@ -3473,8 +4630,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8077201" y="1968646"/>
-          <a:ext cx="4053840" cy="1318261"/>
+          <a:off x="8077201" y="1992169"/>
+          <a:ext cx="4053840" cy="1338139"/>
           <a:chOff x="-971708" y="2519485"/>
           <a:chExt cx="4212005" cy="660350"/>
         </a:xfrm>
@@ -3757,8 +4914,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="335280" y="1653540"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="335280" y="1673750"/>
+          <a:ext cx="3787140" cy="749079"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -3965,8 +5122,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15956280" y="1600200"/>
-          <a:ext cx="2552700" cy="2354580"/>
+          <a:off x="15956280" y="1617097"/>
+          <a:ext cx="2552700" cy="2391023"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="674850"/>
         </a:xfrm>
@@ -4770,8 +5927,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="320040" y="9425940"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="320040" y="9558793"/>
+          <a:ext cx="3787140" cy="749079"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -4978,8 +6135,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="327660" y="10340340"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="327660" y="10486445"/>
+          <a:ext cx="3787140" cy="749079"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -5186,8 +6343,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="335280" y="8511540"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="335280" y="8631141"/>
+          <a:ext cx="3787140" cy="749079"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -5394,8 +6551,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="320040" y="12397740"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="320040" y="12573663"/>
+          <a:ext cx="3787140" cy="749079"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -5602,8 +6759,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="327660" y="13312140"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="327660" y="13501315"/>
+          <a:ext cx="3787140" cy="749079"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -5810,8 +6967,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="335280" y="11483340"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="335280" y="11646010"/>
+          <a:ext cx="3787140" cy="749080"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6134,8 +7291,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="320040" y="5539740"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="320040" y="5616271"/>
+          <a:ext cx="3787140" cy="749079"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6342,8 +7499,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="327660" y="6454140"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="327660" y="6543923"/>
+          <a:ext cx="3787140" cy="749080"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6550,8 +7707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="335280" y="4625340"/>
-          <a:ext cx="3787140" cy="739140"/>
+          <a:off x="335280" y="4688619"/>
+          <a:ext cx="3787140" cy="749079"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6814,8 +7971,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10229306" y="11333626"/>
-          <a:ext cx="3176966" cy="2357337"/>
+          <a:off x="10229306" y="11492983"/>
+          <a:ext cx="3176966" cy="2390468"/>
           <a:chOff x="-971708" y="2519485"/>
           <a:chExt cx="4212005" cy="660350"/>
         </a:xfrm>
@@ -7094,8 +8251,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5360384" y="11456693"/>
-          <a:ext cx="3924300" cy="1977368"/>
+          <a:off x="5360384" y="11619363"/>
+          <a:ext cx="3924300" cy="2003873"/>
           <a:chOff x="338666" y="2353736"/>
           <a:chExt cx="4538133" cy="900092"/>
         </a:xfrm>
@@ -7451,8 +8608,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15247620" y="11353800"/>
-          <a:ext cx="2552700" cy="2354580"/>
+          <a:off x="15247620" y="11513157"/>
+          <a:ext cx="2552700" cy="2387711"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="674850"/>
         </a:xfrm>
@@ -7652,7 +8809,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11900,10 +13057,10 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="78"/>
+      <c r="R2" s="94"/>
       <c r="S2" s="43">
         <v>43711</v>
       </c>
@@ -12002,14 +13159,14 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -12027,65 +13184,65 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="10"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="89" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="91"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="107"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="77" t="s">
+      <c r="Q7" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="78"/>
-      <c r="S7" s="77" t="s">
+      <c r="R7" s="94"/>
+      <c r="S7" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="78"/>
-      <c r="U7" s="77" t="s">
+      <c r="T7" s="94"/>
+      <c r="U7" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="V7" s="78"/>
+      <c r="V7" s="94"/>
       <c r="W7" s="37"/>
       <c r="X7" s="33"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="10"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="94"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="110"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="104" t="s">
+      <c r="Q8" s="111"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="105"/>
+      <c r="V8" s="121"/>
       <c r="W8" s="35"/>
       <c r="X8" s="33"/>
     </row>
@@ -12106,12 +13263,12 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="107"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="123"/>
       <c r="W9" s="35"/>
       <c r="X9" s="33"/>
     </row>
@@ -12132,12 +13289,12 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="109"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="125"/>
       <c r="W10" s="35"/>
       <c r="X10" s="33"/>
     </row>
@@ -12221,81 +13378,81 @@
     </row>
     <row r="14" spans="1:24" ht="41.4">
       <c r="A14" s="10"/>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
       <c r="W14" s="30"/>
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="41.4">
       <c r="A15" s="10"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
       <c r="W15" s="30"/>
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="41.4">
       <c r="A16" s="10"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
       <c r="W16" s="30"/>
       <c r="X16" s="12"/>
     </row>
@@ -12849,511 +14006,511 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="10"/>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="82" t="s">
+      <c r="C38" s="99"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="83"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="82" t="s">
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="84"/>
-      <c r="T38" s="82" t="s">
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="99"/>
+      <c r="S38" s="100"/>
+      <c r="T38" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="U38" s="83"/>
-      <c r="V38" s="84"/>
+      <c r="U38" s="99"/>
+      <c r="V38" s="100"/>
       <c r="W38" s="29"/>
       <c r="X38" s="12"/>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="10"/>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="79">
+      <c r="C39" s="99"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="95">
         <v>43578</v>
       </c>
-      <c r="F39" s="80"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="86" t="s">
+      <c r="F39" s="96"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="77" t="s">
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="U39" s="85"/>
-      <c r="V39" s="78"/>
+      <c r="U39" s="101"/>
+      <c r="V39" s="94"/>
       <c r="W39" s="29"/>
       <c r="X39" s="12"/>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="10"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="83"/>
-      <c r="S40" s="84"/>
-      <c r="T40" s="77"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="78"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="94"/>
       <c r="W40" s="29"/>
       <c r="X40" s="12"/>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="10"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="83"/>
-      <c r="S41" s="84"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="83"/>
-      <c r="V41" s="84"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="100"/>
+      <c r="T41" s="98"/>
+      <c r="U41" s="99"/>
+      <c r="V41" s="100"/>
       <c r="W41" s="29"/>
       <c r="X41" s="12"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="10"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="83"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="83"/>
-      <c r="V42" s="84"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="98"/>
+      <c r="U42" s="99"/>
+      <c r="V42" s="100"/>
       <c r="W42" s="29"/>
       <c r="X42" s="12"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="10"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="83"/>
-      <c r="S43" s="84"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="83"/>
-      <c r="V43" s="84"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="100"/>
+      <c r="T43" s="98"/>
+      <c r="U43" s="99"/>
+      <c r="V43" s="100"/>
       <c r="W43" s="29"/>
       <c r="X43" s="12"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="10"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="83"/>
-      <c r="S44" s="84"/>
-      <c r="T44" s="82"/>
-      <c r="U44" s="83"/>
-      <c r="V44" s="84"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="98"/>
+      <c r="U44" s="99"/>
+      <c r="V44" s="100"/>
       <c r="W44" s="29"/>
       <c r="X44" s="12"/>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="10"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="83"/>
-      <c r="S45" s="84"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="83"/>
-      <c r="V45" s="84"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="100"/>
+      <c r="T45" s="98"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="100"/>
       <c r="W45" s="29"/>
       <c r="X45" s="12"/>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="10"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="83"/>
-      <c r="R46" s="83"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="82"/>
-      <c r="U46" s="83"/>
-      <c r="V46" s="84"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="99"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="99"/>
+      <c r="R46" s="99"/>
+      <c r="S46" s="100"/>
+      <c r="T46" s="98"/>
+      <c r="U46" s="99"/>
+      <c r="V46" s="100"/>
       <c r="W46" s="29"/>
       <c r="X46" s="12"/>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="10"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
-      <c r="S47" s="84"/>
-      <c r="T47" s="82"/>
-      <c r="U47" s="83"/>
-      <c r="V47" s="84"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+      <c r="Q47" s="99"/>
+      <c r="R47" s="99"/>
+      <c r="S47" s="100"/>
+      <c r="T47" s="98"/>
+      <c r="U47" s="99"/>
+      <c r="V47" s="100"/>
       <c r="W47" s="29"/>
       <c r="X47" s="12"/>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" s="10"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="83"/>
-      <c r="R48" s="83"/>
-      <c r="S48" s="84"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="83"/>
-      <c r="V48" s="84"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="99"/>
+      <c r="S48" s="100"/>
+      <c r="T48" s="98"/>
+      <c r="U48" s="99"/>
+      <c r="V48" s="100"/>
       <c r="W48" s="29"/>
       <c r="X48" s="12"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="10"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="83"/>
-      <c r="V49" s="84"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="99"/>
+      <c r="R49" s="99"/>
+      <c r="S49" s="100"/>
+      <c r="T49" s="98"/>
+      <c r="U49" s="99"/>
+      <c r="V49" s="100"/>
       <c r="W49" s="29"/>
       <c r="X49" s="12"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="10"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="83"/>
-      <c r="V50" s="84"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="99"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="99"/>
+      <c r="R50" s="99"/>
+      <c r="S50" s="100"/>
+      <c r="T50" s="98"/>
+      <c r="U50" s="99"/>
+      <c r="V50" s="100"/>
       <c r="W50" s="29"/>
       <c r="X50" s="12"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="10"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
-      <c r="Q51" s="83"/>
-      <c r="R51" s="83"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="83"/>
-      <c r="V51" s="84"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="99"/>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="99"/>
+      <c r="R51" s="99"/>
+      <c r="S51" s="100"/>
+      <c r="T51" s="98"/>
+      <c r="U51" s="99"/>
+      <c r="V51" s="100"/>
       <c r="W51" s="29"/>
       <c r="X51" s="12"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="10"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="83"/>
-      <c r="R52" s="83"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="83"/>
-      <c r="V52" s="84"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="99"/>
+      <c r="M52" s="99"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="99"/>
+      <c r="P52" s="99"/>
+      <c r="Q52" s="99"/>
+      <c r="R52" s="99"/>
+      <c r="S52" s="100"/>
+      <c r="T52" s="98"/>
+      <c r="U52" s="99"/>
+      <c r="V52" s="100"/>
       <c r="W52" s="29"/>
       <c r="X52" s="12"/>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="10"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="82"/>
-      <c r="U53" s="83"/>
-      <c r="V53" s="84"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="99"/>
+      <c r="Q53" s="99"/>
+      <c r="R53" s="99"/>
+      <c r="S53" s="100"/>
+      <c r="T53" s="98"/>
+      <c r="U53" s="99"/>
+      <c r="V53" s="100"/>
       <c r="W53" s="29"/>
       <c r="X53" s="12"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="10"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
-      <c r="Q54" s="83"/>
-      <c r="R54" s="83"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="82"/>
-      <c r="U54" s="83"/>
-      <c r="V54" s="84"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="99"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="99"/>
+      <c r="P54" s="99"/>
+      <c r="Q54" s="99"/>
+      <c r="R54" s="99"/>
+      <c r="S54" s="100"/>
+      <c r="T54" s="98"/>
+      <c r="U54" s="99"/>
+      <c r="V54" s="100"/>
       <c r="W54" s="29"/>
       <c r="X54" s="12"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="10"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="82"/>
-      <c r="U55" s="83"/>
-      <c r="V55" s="84"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="99"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="99"/>
+      <c r="P55" s="99"/>
+      <c r="Q55" s="99"/>
+      <c r="R55" s="99"/>
+      <c r="S55" s="100"/>
+      <c r="T55" s="98"/>
+      <c r="U55" s="99"/>
+      <c r="V55" s="100"/>
       <c r="W55" s="29"/>
       <c r="X55" s="12"/>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="10"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="84"/>
-      <c r="T56" s="82"/>
-      <c r="U56" s="83"/>
-      <c r="V56" s="84"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="99"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="99"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="99"/>
+      <c r="R56" s="99"/>
+      <c r="S56" s="100"/>
+      <c r="T56" s="98"/>
+      <c r="U56" s="99"/>
+      <c r="V56" s="100"/>
       <c r="W56" s="29"/>
       <c r="X56" s="12"/>
     </row>
@@ -13560,8 +14717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6748DBE-A634-414F-9EA2-62B8D0387B45}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -13584,22 +14741,22 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="116"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="127"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="131" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
@@ -13608,16 +14765,16 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="111"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
@@ -13626,16 +14783,16 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="112"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
@@ -13644,18 +14801,18 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="131" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
@@ -13664,16 +14821,16 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="112"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
@@ -13718,16 +14875,16 @@
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="118" t="s">
+      <c r="G9" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="116"/>
+      <c r="H9" s="127"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="160" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -13742,12 +14899,12 @@
       <c r="F10" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="146"/>
-      <c r="B11" s="142" t="s">
+      <c r="A11" s="161"/>
+      <c r="B11" s="154" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -13762,12 +14919,12 @@
       <c r="F11" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="146"/>
-      <c r="B12" s="143"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="39" t="s">
         <v>75</v>
       </c>
@@ -13780,12 +14937,12 @@
       <c r="F12" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="146"/>
-      <c r="B13" s="143"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="39" t="s">
         <v>81</v>
       </c>
@@ -13798,12 +14955,12 @@
       <c r="F13" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="146"/>
-      <c r="B14" s="144"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="38" t="s">
         <v>92</v>
       </c>
@@ -13816,12 +14973,12 @@
       <c r="F14" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="146"/>
-      <c r="B15" s="138" t="s">
+      <c r="A15" s="161"/>
+      <c r="B15" s="157" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="39" t="s">
@@ -13836,12 +14993,12 @@
       <c r="F15" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
     </row>
     <row r="16" spans="1:8" ht="36">
-      <c r="A16" s="146"/>
-      <c r="B16" s="139"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="39" t="s">
         <v>90</v>
       </c>
@@ -13854,12 +15011,12 @@
       <c r="F16" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
     </row>
     <row r="17" spans="1:8" ht="36">
-      <c r="A17" s="147"/>
-      <c r="B17" s="140"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="39" t="s">
         <v>93</v>
       </c>
@@ -13869,30 +15026,46 @@
       <c r="E17" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="148" t="s">
+      <c r="F17" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="136"/>
-      <c r="B18" s="135"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="153" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="163"/>
+      <c r="H18" s="164"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="137"/>
-      <c r="B19" s="135"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G16:H16"/>
+  <mergeCells count="21">
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C5:F5"/>
@@ -13902,9 +15075,10 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13913,11 +15087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38981F7F-0D5F-482F-8A55-7F2FBD63B582}">
-  <dimension ref="A1:BK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEE8E73-6F52-4B7D-B00A-F9E331E3E526}">
+  <dimension ref="A1:BK13"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG49" sqref="AG49"/>
+    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AR29" sqref="AR29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -13993,369 +15167,948 @@
       <c r="BK1" s="46"/>
     </row>
     <row r="2" spans="1:63">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="120" t="s">
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="141"/>
+      <c r="AR2" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="142" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="143"/>
+      <c r="AX2" s="143"/>
+      <c r="AY2" s="143"/>
+      <c r="AZ2" s="143"/>
+      <c r="BA2" s="143"/>
+      <c r="BB2" s="143"/>
+      <c r="BC2" s="143"/>
+      <c r="BD2" s="143"/>
+      <c r="BE2" s="143"/>
+      <c r="BF2" s="143"/>
+      <c r="BG2" s="143"/>
+      <c r="BH2" s="143"/>
+      <c r="BI2" s="143"/>
+      <c r="BJ2" s="143"/>
+      <c r="BK2" s="144"/>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="140"/>
+      <c r="AJ3" s="140"/>
+      <c r="AK3" s="140"/>
+      <c r="AL3" s="140"/>
+      <c r="AM3" s="140"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="141"/>
+      <c r="AR3" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS3" s="135"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="136">
+        <v>43713</v>
+      </c>
+      <c r="AV3" s="137"/>
+      <c r="AW3" s="137"/>
+      <c r="AX3" s="137"/>
+      <c r="AY3" s="137"/>
+      <c r="AZ3" s="137"/>
+      <c r="BA3" s="137"/>
+      <c r="BB3" s="137"/>
+      <c r="BC3" s="137"/>
+      <c r="BD3" s="137"/>
+      <c r="BE3" s="137"/>
+      <c r="BF3" s="137"/>
+      <c r="BG3" s="137"/>
+      <c r="BH3" s="137"/>
+      <c r="BI3" s="137"/>
+      <c r="BJ3" s="137"/>
+      <c r="BK3" s="138"/>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="140"/>
+      <c r="AH4" s="140"/>
+      <c r="AI4" s="140"/>
+      <c r="AJ4" s="140"/>
+      <c r="AK4" s="140"/>
+      <c r="AL4" s="140"/>
+      <c r="AM4" s="140"/>
+      <c r="AN4" s="140"/>
+      <c r="AO4" s="140"/>
+      <c r="AP4" s="140"/>
+      <c r="AQ4" s="141"/>
+      <c r="AR4" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS4" s="135"/>
+      <c r="AT4" s="135"/>
+      <c r="AU4" s="142" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV4" s="143"/>
+      <c r="AW4" s="143"/>
+      <c r="AX4" s="143"/>
+      <c r="AY4" s="143"/>
+      <c r="AZ4" s="143"/>
+      <c r="BA4" s="143"/>
+      <c r="BB4" s="143"/>
+      <c r="BC4" s="143"/>
+      <c r="BD4" s="143"/>
+      <c r="BE4" s="143"/>
+      <c r="BF4" s="143"/>
+      <c r="BG4" s="143"/>
+      <c r="BH4" s="143"/>
+      <c r="BI4" s="143"/>
+      <c r="BJ4" s="143"/>
+      <c r="BK4" s="144"/>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="140"/>
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="140"/>
+      <c r="AM5" s="140"/>
+      <c r="AN5" s="140"/>
+      <c r="AO5" s="140"/>
+      <c r="AP5" s="140"/>
+      <c r="AQ5" s="141"/>
+      <c r="AR5" s="135" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS5" s="135"/>
+      <c r="AT5" s="135"/>
+      <c r="AU5" s="142"/>
+      <c r="AV5" s="143"/>
+      <c r="AW5" s="143"/>
+      <c r="AX5" s="143"/>
+      <c r="AY5" s="143"/>
+      <c r="AZ5" s="143"/>
+      <c r="BA5" s="143"/>
+      <c r="BB5" s="143"/>
+      <c r="BC5" s="143"/>
+      <c r="BD5" s="143"/>
+      <c r="BE5" s="143"/>
+      <c r="BF5" s="143"/>
+      <c r="BG5" s="143"/>
+      <c r="BH5" s="143"/>
+      <c r="BI5" s="143"/>
+      <c r="BJ5" s="143"/>
+      <c r="BK5" s="144"/>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="145"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
+      <c r="AB6" s="140"/>
+      <c r="AC6" s="140"/>
+      <c r="AD6" s="140"/>
+      <c r="AE6" s="140"/>
+      <c r="AF6" s="140"/>
+      <c r="AG6" s="140"/>
+      <c r="AH6" s="140"/>
+      <c r="AI6" s="140"/>
+      <c r="AJ6" s="140"/>
+      <c r="AK6" s="140"/>
+      <c r="AL6" s="140"/>
+      <c r="AM6" s="140"/>
+      <c r="AN6" s="140"/>
+      <c r="AO6" s="140"/>
+      <c r="AP6" s="140"/>
+      <c r="AQ6" s="141"/>
+      <c r="AR6" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135"/>
+      <c r="AU6" s="136"/>
+      <c r="AV6" s="137"/>
+      <c r="AW6" s="137"/>
+      <c r="AX6" s="137"/>
+      <c r="AY6" s="137"/>
+      <c r="AZ6" s="137"/>
+      <c r="BA6" s="137"/>
+      <c r="BB6" s="137"/>
+      <c r="BC6" s="137"/>
+      <c r="BD6" s="137"/>
+      <c r="BE6" s="137"/>
+      <c r="BF6" s="137"/>
+      <c r="BG6" s="137"/>
+      <c r="BH6" s="137"/>
+      <c r="BI6" s="137"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="138"/>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="75"/>
+      <c r="BF7" s="76"/>
+      <c r="BG7" s="77"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="78"/>
+      <c r="BJ7" s="78"/>
+      <c r="BK7" s="79"/>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="75"/>
+      <c r="BF8" s="76"/>
+      <c r="BG8" s="77"/>
+      <c r="BH8" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI8" s="78"/>
+      <c r="BJ8" s="78"/>
+      <c r="BK8" s="79"/>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="BC9" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD9" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE9" s="75"/>
+      <c r="BF9" s="76"/>
+      <c r="BG9" s="77"/>
+      <c r="BH9" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI9" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ9" s="78"/>
+      <c r="BK9" s="79"/>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="BC10" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD10" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="76"/>
+      <c r="BG10" s="77"/>
+      <c r="BH10" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI10" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ10" s="78"/>
+      <c r="BK10" s="79"/>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="BC11" s="74"/>
+      <c r="BD11" s="75"/>
+      <c r="BE11" s="75"/>
+      <c r="BF11" s="76"/>
+      <c r="BG11" s="77"/>
+      <c r="BH11" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI11" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ11" s="78"/>
+      <c r="BK11" s="79"/>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="BC12" s="74"/>
+      <c r="BD12" s="75"/>
+      <c r="BE12" s="75"/>
+      <c r="BF12" s="76"/>
+      <c r="BG12" s="77"/>
+      <c r="BH12" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="BI12" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="BJ12" s="78"/>
+      <c r="BK12" s="79"/>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="BC13" s="81"/>
+      <c r="BD13" s="82"/>
+      <c r="BE13" s="82"/>
+      <c r="BF13" s="83"/>
+      <c r="BG13" s="84"/>
+      <c r="BH13" s="85"/>
+      <c r="BI13" s="85"/>
+      <c r="BJ13" s="85"/>
+      <c r="BK13" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:BK2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:BK3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:BK5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:BK6"/>
+    <mergeCell ref="H4:AQ4"/>
+    <mergeCell ref="AR4:AT4"/>
+    <mergeCell ref="AU4:BK4"/>
+  </mergeCells>
+  <phoneticPr fontId="15"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38981F7F-0D5F-482F-8A55-7F2FBD63B582}">
+  <dimension ref="A1:BK6"/>
+  <sheetViews>
+    <sheetView topLeftCell="W10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="63" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="19.8">
+      <c r="A1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="46"/>
+    </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="121"/>
-      <c r="AJ2" s="121"/>
-      <c r="AK2" s="121"/>
-      <c r="AL2" s="121"/>
-      <c r="AM2" s="121"/>
-      <c r="AN2" s="121"/>
-      <c r="AO2" s="121"/>
-      <c r="AP2" s="121"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="123" t="s">
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="141"/>
+      <c r="AR2" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AS2" s="123"/>
-      <c r="AT2" s="123"/>
-      <c r="AU2" s="124" t="s">
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125"/>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="125"/>
-      <c r="BK2" s="126"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="143"/>
+      <c r="AX2" s="143"/>
+      <c r="AY2" s="143"/>
+      <c r="AZ2" s="143"/>
+      <c r="BA2" s="143"/>
+      <c r="BB2" s="143"/>
+      <c r="BC2" s="143"/>
+      <c r="BD2" s="143"/>
+      <c r="BE2" s="143"/>
+      <c r="BF2" s="143"/>
+      <c r="BG2" s="143"/>
+      <c r="BH2" s="143"/>
+      <c r="BI2" s="143"/>
+      <c r="BJ2" s="143"/>
+      <c r="BK2" s="144"/>
     </row>
     <row r="3" spans="1:63">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120" t="s">
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="120" t="s">
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="121"/>
-      <c r="AJ3" s="121"/>
-      <c r="AK3" s="121"/>
-      <c r="AL3" s="121"/>
-      <c r="AM3" s="121"/>
-      <c r="AN3" s="121"/>
-      <c r="AO3" s="121"/>
-      <c r="AP3" s="121"/>
-      <c r="AQ3" s="122"/>
-      <c r="AR3" s="123" t="s">
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="140"/>
+      <c r="AJ3" s="140"/>
+      <c r="AK3" s="140"/>
+      <c r="AL3" s="140"/>
+      <c r="AM3" s="140"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="141"/>
+      <c r="AR3" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="127">
+      <c r="AS3" s="135"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="136">
         <v>43594</v>
       </c>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="128"/>
-      <c r="BC3" s="128"/>
-      <c r="BD3" s="128"/>
-      <c r="BE3" s="128"/>
-      <c r="BF3" s="128"/>
-      <c r="BG3" s="128"/>
-      <c r="BH3" s="128"/>
-      <c r="BI3" s="128"/>
-      <c r="BJ3" s="128"/>
-      <c r="BK3" s="129"/>
+      <c r="AV3" s="137"/>
+      <c r="AW3" s="137"/>
+      <c r="AX3" s="137"/>
+      <c r="AY3" s="137"/>
+      <c r="AZ3" s="137"/>
+      <c r="BA3" s="137"/>
+      <c r="BB3" s="137"/>
+      <c r="BC3" s="137"/>
+      <c r="BD3" s="137"/>
+      <c r="BE3" s="137"/>
+      <c r="BF3" s="137"/>
+      <c r="BG3" s="137"/>
+      <c r="BH3" s="137"/>
+      <c r="BI3" s="137"/>
+      <c r="BJ3" s="137"/>
+      <c r="BK3" s="138"/>
     </row>
     <row r="4" spans="1:63">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120" t="s">
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="120" t="s">
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
-      <c r="AI4" s="121"/>
-      <c r="AJ4" s="121"/>
-      <c r="AK4" s="121"/>
-      <c r="AL4" s="121"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="121"/>
-      <c r="AO4" s="121"/>
-      <c r="AP4" s="121"/>
-      <c r="AQ4" s="122"/>
-      <c r="AR4" s="123" t="s">
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="140"/>
+      <c r="AH4" s="140"/>
+      <c r="AI4" s="140"/>
+      <c r="AJ4" s="140"/>
+      <c r="AK4" s="140"/>
+      <c r="AL4" s="140"/>
+      <c r="AM4" s="140"/>
+      <c r="AN4" s="140"/>
+      <c r="AO4" s="140"/>
+      <c r="AP4" s="140"/>
+      <c r="AQ4" s="141"/>
+      <c r="AR4" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="124" t="s">
+      <c r="AS4" s="135"/>
+      <c r="AT4" s="135"/>
+      <c r="AU4" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="AV4" s="125"/>
-      <c r="AW4" s="125"/>
-      <c r="AX4" s="125"/>
-      <c r="AY4" s="125"/>
-      <c r="AZ4" s="125"/>
-      <c r="BA4" s="125"/>
-      <c r="BB4" s="125"/>
-      <c r="BC4" s="125"/>
-      <c r="BD4" s="125"/>
-      <c r="BE4" s="125"/>
-      <c r="BF4" s="125"/>
-      <c r="BG4" s="125"/>
-      <c r="BH4" s="125"/>
-      <c r="BI4" s="125"/>
-      <c r="BJ4" s="125"/>
-      <c r="BK4" s="126"/>
+      <c r="AV4" s="143"/>
+      <c r="AW4" s="143"/>
+      <c r="AX4" s="143"/>
+      <c r="AY4" s="143"/>
+      <c r="AZ4" s="143"/>
+      <c r="BA4" s="143"/>
+      <c r="BB4" s="143"/>
+      <c r="BC4" s="143"/>
+      <c r="BD4" s="143"/>
+      <c r="BE4" s="143"/>
+      <c r="BF4" s="143"/>
+      <c r="BG4" s="143"/>
+      <c r="BH4" s="143"/>
+      <c r="BI4" s="143"/>
+      <c r="BJ4" s="143"/>
+      <c r="BK4" s="144"/>
     </row>
     <row r="5" spans="1:63">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120" t="s">
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="120" t="s">
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="121"/>
-      <c r="AG5" s="121"/>
-      <c r="AH5" s="121"/>
-      <c r="AI5" s="121"/>
-      <c r="AJ5" s="121"/>
-      <c r="AK5" s="121"/>
-      <c r="AL5" s="121"/>
-      <c r="AM5" s="121"/>
-      <c r="AN5" s="121"/>
-      <c r="AO5" s="121"/>
-      <c r="AP5" s="121"/>
-      <c r="AQ5" s="122"/>
-      <c r="AR5" s="123" t="s">
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="140"/>
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="140"/>
+      <c r="AM5" s="140"/>
+      <c r="AN5" s="140"/>
+      <c r="AO5" s="140"/>
+      <c r="AP5" s="140"/>
+      <c r="AQ5" s="141"/>
+      <c r="AR5" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="123"/>
-      <c r="AT5" s="123"/>
-      <c r="AU5" s="124"/>
-      <c r="AV5" s="125"/>
-      <c r="AW5" s="125"/>
-      <c r="AX5" s="125"/>
-      <c r="AY5" s="125"/>
-      <c r="AZ5" s="125"/>
-      <c r="BA5" s="125"/>
-      <c r="BB5" s="125"/>
-      <c r="BC5" s="125"/>
-      <c r="BD5" s="125"/>
-      <c r="BE5" s="125"/>
-      <c r="BF5" s="125"/>
-      <c r="BG5" s="125"/>
-      <c r="BH5" s="125"/>
-      <c r="BI5" s="125"/>
-      <c r="BJ5" s="125"/>
-      <c r="BK5" s="126"/>
+      <c r="AS5" s="135"/>
+      <c r="AT5" s="135"/>
+      <c r="AU5" s="142"/>
+      <c r="AV5" s="143"/>
+      <c r="AW5" s="143"/>
+      <c r="AX5" s="143"/>
+      <c r="AY5" s="143"/>
+      <c r="AZ5" s="143"/>
+      <c r="BA5" s="143"/>
+      <c r="BB5" s="143"/>
+      <c r="BC5" s="143"/>
+      <c r="BD5" s="143"/>
+      <c r="BE5" s="143"/>
+      <c r="BF5" s="143"/>
+      <c r="BG5" s="143"/>
+      <c r="BH5" s="143"/>
+      <c r="BI5" s="143"/>
+      <c r="BJ5" s="143"/>
+      <c r="BK5" s="144"/>
     </row>
     <row r="6" spans="1:63">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="120" t="s">
+      <c r="A6" s="145"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="120" t="s">
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="121"/>
-      <c r="AI6" s="121"/>
-      <c r="AJ6" s="121"/>
-      <c r="AK6" s="121"/>
-      <c r="AL6" s="121"/>
-      <c r="AM6" s="121"/>
-      <c r="AN6" s="121"/>
-      <c r="AO6" s="121"/>
-      <c r="AP6" s="121"/>
-      <c r="AQ6" s="122"/>
-      <c r="AR6" s="123" t="s">
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
+      <c r="AB6" s="140"/>
+      <c r="AC6" s="140"/>
+      <c r="AD6" s="140"/>
+      <c r="AE6" s="140"/>
+      <c r="AF6" s="140"/>
+      <c r="AG6" s="140"/>
+      <c r="AH6" s="140"/>
+      <c r="AI6" s="140"/>
+      <c r="AJ6" s="140"/>
+      <c r="AK6" s="140"/>
+      <c r="AL6" s="140"/>
+      <c r="AM6" s="140"/>
+      <c r="AN6" s="140"/>
+      <c r="AO6" s="140"/>
+      <c r="AP6" s="140"/>
+      <c r="AQ6" s="141"/>
+      <c r="AR6" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123"/>
-      <c r="AU6" s="127"/>
-      <c r="AV6" s="128"/>
-      <c r="AW6" s="128"/>
-      <c r="AX6" s="128"/>
-      <c r="AY6" s="128"/>
-      <c r="AZ6" s="128"/>
-      <c r="BA6" s="128"/>
-      <c r="BB6" s="128"/>
-      <c r="BC6" s="128"/>
-      <c r="BD6" s="128"/>
-      <c r="BE6" s="128"/>
-      <c r="BF6" s="128"/>
-      <c r="BG6" s="128"/>
-      <c r="BH6" s="128"/>
-      <c r="BI6" s="128"/>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="129"/>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135"/>
+      <c r="AU6" s="136"/>
+      <c r="AV6" s="137"/>
+      <c r="AW6" s="137"/>
+      <c r="AX6" s="137"/>
+      <c r="AY6" s="137"/>
+      <c r="AZ6" s="137"/>
+      <c r="BA6" s="137"/>
+      <c r="BB6" s="137"/>
+      <c r="BC6" s="137"/>
+      <c r="BD6" s="137"/>
+      <c r="BE6" s="137"/>
+      <c r="BF6" s="137"/>
+      <c r="BG6" s="137"/>
+      <c r="BH6" s="137"/>
+      <c r="BI6" s="137"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14389,7 +16142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C1EDAD-3848-4D21-8264-6EED3D0A4C31}">
   <dimension ref="A1:FU80"/>
   <sheetViews>
@@ -14634,223 +16387,223 @@
       <c r="AG1" s="48"/>
     </row>
     <row r="2" spans="1:177" ht="14.1" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="120" t="s">
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="123" t="s">
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="131" t="s">
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="133"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149"/>
     </row>
     <row r="3" spans="1:177" ht="14.1" customHeight="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120" t="s">
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="120" t="s">
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="123" t="s">
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="134">
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="150">
         <v>43593</v>
       </c>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="133"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149"/>
     </row>
     <row r="4" spans="1:177" ht="14.1" customHeight="1">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120" t="s">
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="120" t="s">
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="123" t="s">
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="141"/>
+      <c r="AA4" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="131" t="s">
+      <c r="AB4" s="135"/>
+      <c r="AC4" s="135"/>
+      <c r="AD4" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="133"/>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="148"/>
+      <c r="AG4" s="149"/>
     </row>
     <row r="5" spans="1:177" ht="14.1" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120" t="s">
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="120" t="s">
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="123" t="s">
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="124" t="s">
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="126"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="143"/>
+      <c r="AG5" s="144"/>
     </row>
     <row r="6" spans="1:177" ht="14.1" customHeight="1">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="120" t="s">
+      <c r="A6" s="145"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="120" t="s">
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="123" t="s">
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="141"/>
+      <c r="AA6" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="130">
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="146">
         <v>43611</v>
       </c>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="126"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="144"/>
     </row>
     <row r="7" spans="1:177" s="55" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="50"/>
